--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E902B168-5747-4279-8384-A6DC591E5C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="2" r:id="rId1"/>
@@ -14,29 +20,16 @@
     <sheet name="减伤率计算列表" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>26691</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -1237,7 +1230,7 @@
         <sz val="11.5"/>
         <color rgb="FF191B1F"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> = </t>
     </r>
@@ -1255,7 +1248,7 @@
         <sz val="11.5"/>
         <color rgb="FF191B1F"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -1292,19 +1285,105 @@
   </si>
   <si>
     <t>减伤率</t>
+  </si>
+  <si>
+    <t>[近战、物理、拳刃、犬牙]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬牙</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+15</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击距离固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击距离固定为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,13 +1420,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="-0.25"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1365,154 +1444,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.5"/>
       <color rgb="FF191B1F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -1543,8 +1478,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1553,216 +1516,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1785,255 +1562,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,9 +1585,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,47 +1614,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2130,77 +1644,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2487,3127 +1948,3256 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.7777777777778" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.7777777777778" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.6666666666667" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.7777777777778" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.6666666666667" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11.7777777777778" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.8888888888889" style="8" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="13" width="10" style="8" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="15" max="15" width="55.5555555555556" style="19" customWidth="1"/>
-    <col min="16" max="19" width="10.1111111111111" style="20" customWidth="1"/>
-    <col min="20" max="21" width="9.66666666666667" style="21" customWidth="1"/>
-    <col min="22" max="24" width="9.66666666666667" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="7" customWidth="1"/>
+    <col min="12" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="55.5" style="15" customWidth="1"/>
+    <col min="16" max="19" width="10.125" style="16" customWidth="1"/>
+    <col min="20" max="24" width="9.625" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:21">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="156" spans="2:21">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:21" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.15">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="27" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="16" customFormat="1" spans="2:21">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:21">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>1.5</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="23">
         <f>$E4*$H4*(1-L4)</f>
         <v>15</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="23">
         <f>($E4+(SUM($P4:$U4)*100))*$H4*(1-L4)</f>
         <v>52.5</v>
       </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="19" t="s">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="16">
         <f>IF(LEN($F4)&gt;=4,VALUE(MID($F4,4,4)),0)</f>
         <v>0.25</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="16">
         <f>IF(LEN($F4)&gt;=13,VALUE(MID($F4,13,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="16">
         <f>IF(LEN($F4)&gt;=22,VALUE(MID($F4,22,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="16">
         <f>IF(LEN($F4)&gt;=31,VALUE(MID($F4,31,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="16">
         <f>IF(LEN($F4)&gt;=40,VALUE(MID($F4,40,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="16">
         <f>IF(LEN($F4)&gt;=49,VALUE(MID($F4,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:21">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <v>1.5</v>
       </c>
-      <c r="I5" s="30">
-        <f t="shared" ref="I5:I27" si="0">$E5*$H5*(1-L5)</f>
+      <c r="I5" s="23">
+        <f t="shared" ref="I5:I29" si="0">$E5*$H5*(1-L5)</f>
         <v>21</v>
       </c>
-      <c r="J5" s="30">
-        <f t="shared" ref="J5:J27" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
+      <c r="J5" s="23">
+        <f t="shared" ref="J5:J29" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
         <v>58.5</v>
       </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="19" t="s">
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="20">
-        <f t="shared" ref="P5:P27" si="2">IF(LEN($F5)&gt;=4,VALUE(MID($F5,4,4)),0)</f>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:P26" si="2">IF(LEN($F5)&gt;=4,VALUE(MID($F5,4,4)),0)</f>
         <v>0.25</v>
       </c>
-      <c r="Q5" s="20">
-        <f t="shared" ref="Q5:Q27" si="3">IF(LEN($F5)&gt;=13,VALUE(MID($F5,13,4)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="20">
-        <f t="shared" ref="R5:R27" si="4">IF(LEN($F5)&gt;=22,VALUE(MID($F5,22,4)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" ref="S5:S27" si="5">IF(LEN($F5)&gt;=31,VALUE(MID($F5,31,4)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" ref="T5:T27" si="6">IF(LEN($F5)&gt;=40,VALUE(MID($F5,40,4)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="20">
-        <f t="shared" ref="U5:U27" si="7">IF(LEN($F5)&gt;=49,VALUE(MID($F5,49,4)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:21">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="Q5" s="16">
+        <f t="shared" ref="Q5:Q26" si="3">IF(LEN($F5)&gt;=13,VALUE(MID($F5,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" ref="R5:R26" si="4">IF(LEN($F5)&gt;=22,VALUE(MID($F5,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" ref="S5:S26" si="5">IF(LEN($F5)&gt;=31,VALUE(MID($F5,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" ref="T5:T26" si="6">IF(LEN($F5)&gt;=40,VALUE(MID($F5,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" ref="U5:U26" si="7">IF(LEN($F5)&gt;=49,VALUE(MID($F5,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <v>1.5</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="23">
         <f t="shared" si="1"/>
         <v>64.5</v>
       </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="19" t="s">
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="16">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="16.2" spans="1:21">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <v>1.5</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="19" t="s">
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="16">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:21">
-      <c r="A8" s="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="23">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="32">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:21">
-      <c r="A9" s="8">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>1</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="23">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="K9" s="17">
-        <v>1</v>
-      </c>
-      <c r="L9" s="32">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <v>0.05</v>
       </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33" t="s">
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" spans="1:21">
-      <c r="A10" s="8">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="7">
         <v>65</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="30">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="23">
         <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-      <c r="L10" s="32">
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
         <v>0.1</v>
       </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="O10" s="33" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U10" s="20">
+      <c r="U10" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" spans="1:21">
-      <c r="A11" s="8">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="7">
         <v>70</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="30">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="23">
         <f t="shared" si="1"/>
         <v>93.5</v>
       </c>
-      <c r="K11" s="17">
-        <v>1</v>
-      </c>
-      <c r="L11" s="32">
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
         <v>0.15</v>
       </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="20">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="8">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>12</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="30">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="23">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33" t="s">
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="8">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>16</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="23">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33" t="s">
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U13" s="20">
+      <c r="U13" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="8">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>22</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="23">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33" t="s">
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="8">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>30</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="23">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="33" t="s">
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="20">
+      <c r="T15" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U15" s="20">
+      <c r="U15" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:21">
-      <c r="A16" s="8">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="23">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="7">
         <v>3</v>
       </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="20">
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="18" customFormat="1" spans="1:21">
-      <c r="A17" s="8">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="7">
         <v>2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="7">
         <v>10</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1</v>
-      </c>
-      <c r="I17" s="30">
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="7">
         <v>3</v>
       </c>
-      <c r="L17" s="18">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="20">
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="20">
+      <c r="T17" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U17" s="20">
+      <c r="U17" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="1" spans="1:21">
-      <c r="A18" s="8">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="7">
         <v>3</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="7">
         <v>15</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="30">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="19">
         <v>3</v>
       </c>
-      <c r="L18" s="18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="20">
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="16">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="20">
+      <c r="S18" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T18" s="20">
+      <c r="T18" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U18" s="20">
+      <c r="U18" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="8">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>20</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="23">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>3</v>
       </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="19" t="s">
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="8">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
         <v>5</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="23">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>3</v>
       </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="20">
+      <c r="P20" s="16">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q20" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="20">
+      <c r="S20" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T20" s="20">
+      <c r="T20" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="8">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>10</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="23">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>3</v>
       </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="16">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="8">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>15</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="23">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>3</v>
       </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="16">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="20">
+      <c r="S22" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="20">
+      <c r="T22" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U22" s="20">
+      <c r="U22" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="8">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>20</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="30">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>3</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8" t="s">
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="16">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="20">
+      <c r="T23" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U23" s="20">
+      <c r="U23" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="8">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
         <v>6</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
         <v>5</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.5</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>2</v>
       </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19" t="s">
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="16">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="20">
+      <c r="S24" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T24" s="20">
+      <c r="T24" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="8">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
         <v>6</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>5</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
         <v>0.75</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="23">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="23">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>2</v>
       </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="19" t="s">
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="16">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T25" s="20">
+      <c r="T25" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U25" s="20">
+      <c r="U25" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="8">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
         <v>6</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>5</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="30">
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="23">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>2</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="19" t="s">
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="20">
+      <c r="P26" s="16">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T26" s="20">
+      <c r="T26" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U26" s="20">
+      <c r="U26" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="16:21">
-      <c r="P27" s="20">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>7</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>12</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J27" s="23">
+        <f t="shared" si="1"/>
+        <v>58.75</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" s="16">
         <f t="shared" ref="P27:P35" si="8">IF(LEN($F27)&gt;=4,VALUE(MID($F27,4,4)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="Q27" s="16">
         <f t="shared" ref="Q27:Q35" si="9">IF(LEN($F27)&gt;=13,VALUE(MID($F27,13,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="16">
         <f t="shared" ref="R27:R35" si="10">IF(LEN($F27)&gt;=22,VALUE(MID($F27,22,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="16">
         <f t="shared" ref="S27:S35" si="11">IF(LEN($F27)&gt;=31,VALUE(MID($F27,31,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="20">
+      <c r="T27" s="16">
         <f t="shared" ref="T27:T35" si="12">IF(LEN($F27)&gt;=40,VALUE(MID($F27,40,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="16">
         <f t="shared" ref="U27:U35" si="13">IF(LEN($F27)&gt;=49,VALUE(MID($F27,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="16:21">
-      <c r="P28" s="20">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>7</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>16</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J28" s="23">
+        <f t="shared" si="1"/>
+        <v>63.75</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="Q28" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S28" s="20">
+      <c r="S28" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T28" s="20">
+      <c r="T28" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U28" s="20">
+      <c r="U28" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="16:21">
-      <c r="P29" s="20">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>7</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J29" s="23">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="Q29" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R29" s="20">
+      <c r="R29" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S29" s="20">
+      <c r="S29" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T29" s="20">
+      <c r="T29" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U29" s="20">
+      <c r="U29" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="16:21">
-      <c r="P30" s="20">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P30" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q30" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S30" s="20">
+      <c r="S30" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T30" s="20">
+      <c r="T30" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="20">
+      <c r="U30" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="16:21">
-      <c r="P31" s="20">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P31" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S31" s="20">
+      <c r="S31" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T31" s="20">
+      <c r="T31" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U31" s="20">
+      <c r="U31" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="16:21">
-      <c r="P32" s="20">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P32" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S32" s="20">
+      <c r="S32" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T32" s="20">
+      <c r="T32" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U32" s="20">
+      <c r="U32" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="16:21">
-      <c r="P33" s="20">
+    <row r="33" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P33" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S33" s="20">
+      <c r="S33" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T33" s="20">
+      <c r="T33" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U33" s="20">
+      <c r="U33" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="16:21">
-      <c r="P34" s="20">
+    <row r="34" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P34" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T34" s="20">
+      <c r="T34" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U34" s="20">
+      <c r="U34" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="16:21">
-      <c r="P35" s="20">
+    <row r="35" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P35" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T35" s="20">
+      <c r="T35" s="16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U35" s="20">
+      <c r="U35" s="16">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="16:21">
-      <c r="P36" s="20">
+    <row r="36" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P36" s="16">
         <f t="shared" ref="P36:P49" si="14">IF(LEN($F36)&gt;=4,VALUE(MID($F36,4,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q36" s="16">
         <f t="shared" ref="Q36:Q49" si="15">IF(LEN($F36)&gt;=13,VALUE(MID($F36,13,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="16">
         <f t="shared" ref="R36:R49" si="16">IF(LEN($F36)&gt;=22,VALUE(MID($F36,22,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="20">
+      <c r="S36" s="16">
         <f t="shared" ref="S36:S49" si="17">IF(LEN($F36)&gt;=31,VALUE(MID($F36,31,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="20">
+      <c r="T36" s="16">
         <f t="shared" ref="T36:T49" si="18">IF(LEN($F36)&gt;=40,VALUE(MID($F36,40,4)),0)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="20">
+      <c r="U36" s="16">
         <f t="shared" ref="U36:U49" si="19">IF(LEN($F36)&gt;=49,VALUE(MID($F36,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:21">
-      <c r="P37" s="20">
+    <row r="37" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P37" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S37" s="20">
+      <c r="S37" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T37" s="20">
+      <c r="T37" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U37" s="20">
+      <c r="U37" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="16:21">
-      <c r="P38" s="20">
+    <row r="38" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P38" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="20">
+      <c r="Q38" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T38" s="20">
+      <c r="T38" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U38" s="20">
+      <c r="U38" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="16:21">
-      <c r="P39" s="20">
+    <row r="39" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P39" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T39" s="20">
+      <c r="T39" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U39" s="20">
+      <c r="U39" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="16:21">
-      <c r="P40" s="20">
+    <row r="40" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P40" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="20">
+      <c r="Q40" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S40" s="20">
+      <c r="S40" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T40" s="20">
+      <c r="T40" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U40" s="20">
+      <c r="U40" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="16:21">
-      <c r="P41" s="20">
+    <row r="41" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P41" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="20">
+      <c r="Q41" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R41" s="20">
+      <c r="R41" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T41" s="20">
+      <c r="T41" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U41" s="20">
+      <c r="U41" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="16:21">
-      <c r="P42" s="20">
+    <row r="42" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P42" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="Q42" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T42" s="20">
+      <c r="T42" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U42" s="20">
+      <c r="U42" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="16:21">
-      <c r="P43" s="20">
+    <row r="43" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P43" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="20">
+      <c r="Q43" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R43" s="20">
+      <c r="R43" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T43" s="20">
+      <c r="T43" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U43" s="20">
+      <c r="U43" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:21">
-      <c r="P44" s="20">
+    <row r="44" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P44" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="20">
+      <c r="Q44" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T44" s="20">
+      <c r="T44" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U44" s="20">
+      <c r="U44" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="16:21">
-      <c r="P45" s="20">
+    <row r="45" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P45" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U45" s="20">
+      <c r="U45" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="16:21">
-      <c r="P46" s="20">
+    <row r="46" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P46" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="20">
+      <c r="Q46" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S46" s="20">
+      <c r="S46" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T46" s="20">
+      <c r="T46" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U46" s="20">
+      <c r="U46" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="16:21">
-      <c r="P47" s="20">
+    <row r="47" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P47" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="20">
+      <c r="Q47" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R47" s="20">
+      <c r="R47" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T47" s="20">
+      <c r="T47" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U47" s="20">
+      <c r="U47" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="16:21">
-      <c r="P48" s="20">
+    <row r="48" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P48" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="20">
+      <c r="Q48" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R48" s="20">
+      <c r="R48" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S48" s="20">
+      <c r="S48" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T48" s="20">
+      <c r="T48" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U48" s="20">
+      <c r="U48" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="16:21">
-      <c r="P49" s="20">
+    <row r="49" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P49" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="Q49" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R49" s="20">
+      <c r="R49" s="16">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S49" s="20">
+      <c r="S49" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T49" s="20">
+      <c r="T49" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U49" s="20">
+      <c r="U49" s="16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.5555555555556" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.1111111111111" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.6666666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" style="8" customWidth="1"/>
-    <col min="6" max="7" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.55555555555556" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="11" max="11" width="36.2222222222222" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="9.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="7" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="36.25" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:11">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="93.6" spans="2:11">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>20</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>$G3/($G3+减伤率计算列表!$D$4)</f>
-        <v>0.285714285714286</v>
-      </c>
-      <c r="I3" s="11">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="I3" s="10">
         <f>($G3+45)/($G3+减伤率计算列表!$D$4+45)</f>
         <v>0.565217391304348</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>40</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f>G4/(G4+减伤率计算列表!$D$4)</f>
-        <v>0.444444444444444</v>
-      </c>
-      <c r="I4" s="11">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I4" s="10">
         <f>($G4+45)/($G4+减伤率计算列表!$D$4+45)</f>
-        <v>0.62962962962963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>0.62962962962962998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>50</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>G5/(G5+减伤率计算列表!$D$4)</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>($G5+45)/($G5+减伤率计算列表!$D$4+45)</f>
-        <v>0.655172413793103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+        <v>0.65517241379310298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>80</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>G6/(G6+减伤率计算列表!$D$4)</f>
-        <v>0.615384615384615</v>
-      </c>
-      <c r="I6" s="11">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="I6" s="10">
         <f>($G6+45)/($G6+减伤率计算列表!$D$4+45)</f>
-        <v>0.714285714285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>10</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>10</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f>G7/(G7+减伤率计算列表!$D$4)</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="I7" s="11">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="I7" s="10">
         <f>($G7+45)/($G7+减伤率计算列表!$D$4+45)</f>
-        <v>0.523809523809524</v>
-      </c>
-      <c r="K7" s="8" t="s">
+        <v>0.52380952380952395</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>35</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>15</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>20</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f>G8/(G8+减伤率计算列表!$D$4)</f>
-        <v>0.285714285714286</v>
-      </c>
-      <c r="I8" s="11">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="I8" s="10">
         <f>($G8+45)/($G8+减伤率计算列表!$D$4+45)</f>
         <v>0.565217391304348</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>50</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>25</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>30</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f>G9/(G9+减伤率计算列表!$D$4)</f>
         <v>0.375</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>($G9+45)/($G9+减伤率计算列表!$D$4+45)</f>
         <v>0.6</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>80</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>40</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>50</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f>G10/(G10+减伤率计算列表!$D$4)</f>
         <v>0.5</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>($G10+45)/($G10+减伤率计算列表!$D$4+45)</f>
-        <v>0.655172413793103</v>
-      </c>
-      <c r="K10" s="8" t="s">
+        <v>0.65517241379310298</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.5555555555556" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.1111111111111" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.6666666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" style="8" customWidth="1"/>
-    <col min="6" max="6" width="36.2222222222222" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="9.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="93.6" spans="2:4">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:6">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:6">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:6">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:6">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:6">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:6">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:6">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:6">
-      <c r="A10" s="8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" ht="17.4" spans="2:2">
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="17.4" spans="3:3">
+    <row r="4" spans="2:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="17.4" spans="3:3">
+    <row r="5" spans="2:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" s="4" customFormat="1" ht="17.4" spans="3:3">
+    <row r="6" spans="2:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="C6" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="6" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="12.8888888888889"/>
+    <col min="4" max="4" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="3:3">
+    <row r="3" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>123</v>
       </c>
@@ -5615,7 +5205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>73</v>
       </c>
@@ -5623,7 +5213,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="3:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5636,53 +5226,53 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="3:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D39" si="0">C8/(C8+$D$4)*100%</f>
-        <v>0.0909090909090909</v>
+        <f t="shared" ref="D8:D27" si="0">C8/(C8+$D$4)*100%</f>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
         <v>105</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/(F8+$D$4)*100%</f>
-        <v>0.67741935483871</v>
+        <f t="shared" ref="G8:G27" si="1">F8/(F8+$D$4)*100%</f>
+        <v>0.67741935483870996</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>205</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J27" si="1">I8/(I8+$D$4)*100%</f>
-        <v>0.803921568627451</v>
+        <f t="shared" ref="J8:J27" si="2">I8/(I8+$D$4)*100%</f>
+        <v>0.80392156862745101</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <v>305</v>
       </c>
       <c r="M8" s="3">
-        <f>L8/(L8+$D$4)*100%</f>
-        <v>0.859154929577465</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+        <f t="shared" ref="M8:M27" si="3">L8/(L8+$D$4)*100%</f>
+        <v>0.85915492957746498</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.166666666666667</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>110</v>
       </c>
       <c r="G9" s="3">
-        <f>F9/(F9+$D$4)*100%</f>
+        <f t="shared" si="1"/>
         <v>0.6875</v>
       </c>
       <c r="H9" s="2"/>
@@ -5690,19 +5280,19 @@
         <v>210</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.807692307692308</v>
+        <f t="shared" si="2"/>
+        <v>0.80769230769230804</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <v>310</v>
       </c>
       <c r="M9" s="3">
-        <f>L9/(L9+$D$4)*100%</f>
-        <v>0.861111111111111</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.86111111111111105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>15</v>
       </c>
@@ -5715,93 +5305,93 @@
         <v>115</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/(F10+$D$4)*100%</f>
-        <v>0.696969696969697</v>
+        <f t="shared" si="1"/>
+        <v>0.69696969696969702</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>215</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.811320754716981</v>
+        <f t="shared" si="2"/>
+        <v>0.81132075471698095</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <v>315</v>
       </c>
       <c r="M10" s="3">
-        <f>L10/(L10+$D$4)*100%</f>
-        <v>0.863013698630137</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.86301369863013699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0.285714285714286</v>
+        <v>0.28571428571428598</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <v>120</v>
       </c>
       <c r="G11" s="3">
-        <f>F11/(F11+$D$4)*100%</f>
-        <v>0.705882352941177</v>
+        <f t="shared" si="1"/>
+        <v>0.70588235294117696</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>220</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.814814814814815</v>
+        <f t="shared" si="2"/>
+        <v>0.81481481481481499</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>320</v>
       </c>
       <c r="M11" s="3">
-        <f>L11/(L11+$D$4)*100%</f>
-        <v>0.864864864864865</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.86486486486486502</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>25</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <v>125</v>
       </c>
       <c r="G12" s="3">
-        <f>F12/(F12+$D$4)*100%</f>
-        <v>0.714285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>225</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.818181818181818</v>
+        <f t="shared" si="2"/>
+        <v>0.81818181818181801</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>325</v>
       </c>
       <c r="M12" s="3">
-        <f>L12/(L12+$D$4)*100%</f>
-        <v>0.866666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.86666666666666703</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>30</v>
       </c>
@@ -5814,126 +5404,126 @@
         <v>130</v>
       </c>
       <c r="G13" s="3">
-        <f>F13/(F13+$D$4)*100%</f>
-        <v>0.722222222222222</v>
+        <f t="shared" si="1"/>
+        <v>0.72222222222222199</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>230</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.821428571428571</v>
+        <f t="shared" si="2"/>
+        <v>0.82142857142857095</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <v>330</v>
       </c>
       <c r="M13" s="3">
-        <f>L13/(L13+$D$4)*100%</f>
-        <v>0.868421052631579</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>35</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>0.411764705882353</v>
+        <v>0.41176470588235298</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
         <v>135</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/(F14+$D$4)*100%</f>
-        <v>0.72972972972973</v>
+        <f t="shared" si="1"/>
+        <v>0.72972972972973005</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>235</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.824561403508772</v>
+        <f t="shared" si="2"/>
+        <v>0.82456140350877205</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <v>335</v>
       </c>
       <c r="M14" s="3">
-        <f>L14/(L14+$D$4)*100%</f>
-        <v>0.87012987012987</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.87012987012986998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>40</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.444444444444444</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
         <v>140</v>
       </c>
       <c r="G15" s="3">
-        <f>F15/(F15+$D$4)*100%</f>
-        <v>0.736842105263158</v>
+        <f t="shared" si="1"/>
+        <v>0.73684210526315796</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>240</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.827586206896552</v>
+        <f t="shared" si="2"/>
+        <v>0.82758620689655205</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
         <v>340</v>
       </c>
       <c r="M15" s="3">
-        <f>L15/(L15+$D$4)*100%</f>
-        <v>0.871794871794872</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.87179487179487203</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>45</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0.473684210526316</v>
+        <v>0.47368421052631599</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <v>145</v>
       </c>
       <c r="G16" s="3">
-        <f>F16/(F16+$D$4)*100%</f>
-        <v>0.743589743589744</v>
+        <f t="shared" si="1"/>
+        <v>0.74358974358974395</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>245</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.830508474576271</v>
+        <f t="shared" si="2"/>
+        <v>0.83050847457627097</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2">
         <v>345</v>
       </c>
       <c r="M16" s="3">
-        <f>L16/(L16+$D$4)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.873417721518987</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>50</v>
       </c>
@@ -5946,7 +5536,7 @@
         <v>150</v>
       </c>
       <c r="G17" s="3">
-        <f>F17/(F17+$D$4)*100%</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="H17" s="2"/>
@@ -5954,85 +5544,85 @@
         <v>250</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.83333333333333304</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <v>350</v>
       </c>
       <c r="M17" s="3">
-        <f>L17/(L17+$D$4)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>55</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0.523809523809524</v>
+        <v>0.52380952380952395</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
         <v>155</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/(F18+$D$4)*100%</f>
-        <v>0.75609756097561</v>
+        <f t="shared" si="1"/>
+        <v>0.75609756097560998</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>255</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.836065573770492</v>
+        <f t="shared" si="2"/>
+        <v>0.83606557377049195</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
         <v>355</v>
       </c>
       <c r="M18" s="3">
-        <f>L18/(L18+$D$4)*100%</f>
-        <v>0.876543209876543</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.87654320987654299</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>60</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0.545454545454545</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
         <v>160</v>
       </c>
       <c r="G19" s="3">
-        <f>F19/(F19+$D$4)*100%</f>
-        <v>0.761904761904762</v>
+        <f t="shared" si="1"/>
+        <v>0.76190476190476197</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>260</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.838709677419355</v>
+        <f t="shared" si="2"/>
+        <v>0.83870967741935498</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <v>360</v>
       </c>
       <c r="M19" s="3">
-        <f>L19/(L19+$D$4)*100%</f>
-        <v>0.878048780487805</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.87804878048780499</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>65</v>
       </c>
@@ -6045,48 +5635,48 @@
         <v>165</v>
       </c>
       <c r="G20" s="3">
-        <f>F20/(F20+$D$4)*100%</f>
-        <v>0.767441860465116</v>
+        <f t="shared" si="1"/>
+        <v>0.76744186046511598</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>265</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.841269841269841</v>
+        <f t="shared" si="2"/>
+        <v>0.84126984126984095</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>365</v>
       </c>
       <c r="M20" s="3">
-        <f>L20/(L20+$D$4)*100%</f>
-        <v>0.879518072289157</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.87951807228915702</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>70</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
         <v>170</v>
       </c>
       <c r="G21" s="3">
-        <f>F21/(F21+$D$4)*100%</f>
-        <v>0.772727272727273</v>
+        <f t="shared" si="1"/>
+        <v>0.77272727272727304</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
         <v>270</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84375</v>
       </c>
       <c r="K21" s="2"/>
@@ -6094,11 +5684,11 @@
         <v>370</v>
       </c>
       <c r="M21" s="3">
-        <f>L21/(L21+$D$4)*100%</f>
-        <v>0.880952380952381</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88095238095238104</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>75</v>
       </c>
@@ -6111,172 +5701,172 @@
         <v>175</v>
       </c>
       <c r="G22" s="3">
-        <f>F22/(F22+$D$4)*100%</f>
-        <v>0.777777777777778</v>
+        <f t="shared" si="1"/>
+        <v>0.77777777777777801</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
         <v>275</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>0.846153846153846</v>
+        <f t="shared" si="2"/>
+        <v>0.84615384615384603</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
         <v>375</v>
       </c>
       <c r="M22" s="3">
-        <f>L22/(L22+$D$4)*100%</f>
-        <v>0.882352941176471</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88235294117647101</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>80</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.615384615384615</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
         <v>180</v>
       </c>
       <c r="G23" s="3">
-        <f>F23/(F23+$D$4)*100%</f>
-        <v>0.782608695652174</v>
+        <f t="shared" si="1"/>
+        <v>0.78260869565217395</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>280</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
-        <v>0.848484848484849</v>
+        <f t="shared" si="2"/>
+        <v>0.84848484848484895</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
         <v>380</v>
       </c>
       <c r="M23" s="3">
-        <f>L23/(L23+$D$4)*100%</f>
-        <v>0.883720930232558</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88372093023255804</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>85</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0.62962962962963</v>
+        <v>0.62962962962962998</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
         <v>185</v>
       </c>
       <c r="G24" s="3">
-        <f>F24/(F24+$D$4)*100%</f>
-        <v>0.787234042553192</v>
+        <f t="shared" si="1"/>
+        <v>0.78723404255319196</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
         <v>285</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>0.850746268656716</v>
+        <f t="shared" si="2"/>
+        <v>0.85074626865671599</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
         <v>385</v>
       </c>
       <c r="M24" s="3">
-        <f>L24/(L24+$D$4)*100%</f>
-        <v>0.885057471264368</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88505747126436796</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>90</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0.642857142857143</v>
+        <v>0.64285714285714302</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
         <v>190</v>
       </c>
       <c r="G25" s="3">
-        <f>F25/(F25+$D$4)*100%</f>
-        <v>0.791666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.79166666666666696</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
         <v>290</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>0.852941176470588</v>
+        <f t="shared" si="2"/>
+        <v>0.85294117647058798</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
         <v>390</v>
       </c>
       <c r="M25" s="3">
-        <f>L25/(L25+$D$4)*100%</f>
-        <v>0.886363636363636</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88636363636363602</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>95</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>0.655172413793103</v>
+        <v>0.65517241379310298</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
         <v>195</v>
       </c>
       <c r="G26" s="3">
-        <f>F26/(F26+$D$4)*100%</f>
-        <v>0.795918367346939</v>
+        <f t="shared" si="1"/>
+        <v>0.79591836734693899</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2">
         <v>295</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
-        <v>0.855072463768116</v>
+        <f t="shared" si="2"/>
+        <v>0.85507246376811596</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2">
         <v>395</v>
       </c>
       <c r="M26" s="3">
-        <f>L26/(L26+$D$4)*100%</f>
-        <v>0.887640449438202</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
+        <f t="shared" si="3"/>
+        <v>0.88764044943820197</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" s="2">
         <v>100</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <f>F27/(F27+$D$4)*100%</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="H27" s="2"/>
@@ -6284,20 +5874,20 @@
         <v>300</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>0.857142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.85714285714285698</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2">
         <v>400</v>
       </c>
       <c r="M27" s="3">
-        <f>L27/(L27+$D$4)*100%</f>
-        <v>0.888888888888889</v>
+        <f t="shared" si="3"/>
+        <v>0.88888888888888895</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E902B168-5747-4279-8384-A6DC591E5C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10245652-EB95-43AF-AB34-CBDDECB4F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -1378,12 +1378,564 @@
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>[近战、物理、军旗、“我们”]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我们”</t>
+  </si>
+  <si>
+    <t>“我们”</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.40]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为最大生命值最低的一名友军提供防御强度加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为最大生命值最低的一名友军提供防御强度加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为最大生命值最低的一名友军提供防御强度加成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、链器、苍术]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍术</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.40]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中时造成敌方最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的魔法伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中时造成敌方最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%的魔法伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中时造成敌方最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4%的魔法伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中时造成敌方最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%的魔法伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中时造成敌方最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6%的魔法伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>[远程、魔法、法杖、食腐造物]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>食腐造物</t>
+  </si>
+  <si>
+    <r>
+      <t>有敌人死亡时回复自身最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有敌人死亡时回复自身最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6%。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有敌人死亡时回复自身最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7%。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>[3,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.18]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.23]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、虔诚、乐器、勾月]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾月</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击命中敌人时会使对方被拉近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距离。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、锐器、海拉之吻]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拉之吻</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>物理强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>物理强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+15</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>物理强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+20</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、物理、暗器、倒影]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒影</t>
+  </si>
+  <si>
+    <t>[1,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、钝器、“肉泥宝”]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“肉泥宝”</t>
+  </si>
+  <si>
+    <t>[盔甲、凝聚者之盔]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚者之盔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以自身为中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3*3范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内队友数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，护盾回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*2</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,6 +2054,13 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC0504D"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1954,11 +2513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1975,7 +2534,7 @@
     <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="7" customWidth="1"/>
     <col min="12" max="13" width="10" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="30.625" style="7" customWidth="1"/>
     <col min="15" max="15" width="55.5" style="15" customWidth="1"/>
     <col min="16" max="19" width="10.125" style="16" customWidth="1"/>
     <col min="20" max="24" width="9.625" style="7" customWidth="1"/>
@@ -2214,11 +2773,11 @@
         <v>1.5</v>
       </c>
       <c r="I5" s="23">
-        <f t="shared" ref="I5:I29" si="0">$E5*$H5*(1-L5)</f>
+        <f t="shared" ref="I5:I56" si="0">$E5*$H5*(1-L5)</f>
         <v>21</v>
       </c>
       <c r="J5" s="23">
-        <f t="shared" ref="J5:J29" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
+        <f t="shared" ref="J5:J56" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
         <v>58.5</v>
       </c>
       <c r="K5" s="7">
@@ -3907,7 +4466,7 @@
         <v>1.25</v>
       </c>
       <c r="I29" s="23">
-        <f t="shared" si="0"/>
+        <f>$E29*$H29*(1-L29)</f>
         <v>25</v>
       </c>
       <c r="J29" s="23">
@@ -3955,9 +4514,56 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>8</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>2</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="P30" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="9"/>
@@ -3981,9 +4587,56 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>8</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="P31" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="9"/>
@@ -4007,9 +4660,56 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>8</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="P32" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="9"/>
@@ -4032,10 +4732,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>9</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>5</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="J33" s="23">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="K33" s="7">
+        <v>7</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>150</v>
+      </c>
       <c r="P33" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="9"/>
@@ -4058,10 +4802,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>9</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I34" s="23">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="J34" s="23">
+        <f t="shared" si="1"/>
+        <v>43.75</v>
+      </c>
+      <c r="K34" s="7">
+        <v>7</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="P34" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="9"/>
@@ -4084,10 +4872,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>9</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>15</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+      <c r="K35" s="7">
+        <v>7</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="P35" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="9"/>
@@ -4110,10 +4942,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>9</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>20</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="K36" s="7">
+        <v>7</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>153</v>
+      </c>
       <c r="P36" s="16">
         <f t="shared" ref="P36:P49" si="14">IF(LEN($F36)&gt;=4,VALUE(MID($F36,4,4)),0)</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" ref="Q36:Q49" si="15">IF(LEN($F36)&gt;=13,VALUE(MID($F36,13,4)),0)</f>
@@ -4136,10 +5012,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>9</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>25</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I37" s="23">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+      <c r="J37" s="23">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+      <c r="K37" s="7">
+        <v>7</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>154</v>
+      </c>
       <c r="P37" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="15"/>
@@ -4162,10 +5082,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>10</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K38" s="7">
+        <v>6</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>157</v>
+      </c>
       <c r="P38" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="15"/>
@@ -4188,10 +5152,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>10</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="25">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>10</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J39" s="23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K39" s="7">
+        <v>6</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>158</v>
+      </c>
       <c r="P39" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="15"/>
@@ -4214,10 +5222,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>10</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
+        <v>15</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J40" s="23">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K40" s="7">
+        <v>6</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="P40" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="15"/>
@@ -4240,10 +5292,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>11</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>5</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K41" s="7">
+        <v>8</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="P41" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="15"/>
@@ -4266,10 +5362,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A42" s="7">
+        <v>11</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>8</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K42" s="7">
+        <v>8</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="P42" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="15"/>
@@ -4292,10 +5432,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>11</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>12</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K43" s="7">
+        <v>8</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="P43" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q43" s="16">
         <f t="shared" si="15"/>
@@ -4318,10 +5502,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
+        <v>11</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="7">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7">
+        <v>18</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K44" s="7">
+        <v>8</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="P44" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="Q44" s="16">
         <f t="shared" si="15"/>
@@ -4344,10 +5572,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>11</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>25</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J45" s="23">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K45" s="7">
+        <v>8</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="P45" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q45" s="16">
         <f t="shared" si="15"/>
@@ -4370,10 +5642,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>12</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>30</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J46" s="23">
+        <f>($E46+(SUM($P46:$U46)*100))*$H46*(1-L46)</f>
+        <v>50</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>169</v>
+      </c>
       <c r="P46" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q46" s="16">
         <f t="shared" si="15"/>
@@ -4396,10 +5712,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>12</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J47" s="23">
+        <f t="shared" ref="J47:J56" si="20">($E47+(SUM($P47:$U47)*100))*$H47*(1-L47)</f>
+        <v>65</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="25" t="s">
+        <v>170</v>
+      </c>
       <c r="P47" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" si="15"/>
@@ -4422,10 +5782,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>12</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="7">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>60</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J48" s="23">
+        <f t="shared" si="20"/>
+        <v>95</v>
+      </c>
+      <c r="K48" s="7">
+        <v>2</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="P48" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q48" s="16">
         <f t="shared" si="15"/>
@@ -4448,10 +5852,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>13</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>2</v>
+      </c>
+      <c r="I49" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="K49" s="7">
+        <v>8</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
       <c r="P49" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q49" s="16">
         <f t="shared" si="15"/>
@@ -4471,6 +5916,307 @@
       </c>
       <c r="U49" s="16">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>13</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>10</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2</v>
+      </c>
+      <c r="I50" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J50" s="23">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="K50" s="7">
+        <v>8</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>13</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7">
+        <v>15</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>2</v>
+      </c>
+      <c r="I51" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="K51" s="7">
+        <v>8</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>13</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="7">
+        <v>4</v>
+      </c>
+      <c r="E52" s="7">
+        <v>20</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="K52" s="7">
+        <v>8</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>13</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7">
+        <v>25</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>2</v>
+      </c>
+      <c r="I53" s="23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="K53" s="7">
+        <v>8</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>14</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7">
+        <v>20</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I54" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="K54" s="7">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>14</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>30</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I55" s="23">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="J55" s="23">
+        <f t="shared" si="20"/>
+        <v>22.5</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>14</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>40</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4483,10 +6229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4500,7 +6246,7 @@
     <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="36.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="50.625" style="7" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
@@ -4816,6 +6562,40 @@
       </c>
       <c r="K10" s="7" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7">
+        <v>50</v>
+      </c>
+      <c r="H11" s="10">
+        <f>G11/(G11+减伤率计算列表!$D$4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="10">
+        <f>($G11+45)/($G11+减伤率计算列表!$D$4+45)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10245652-EB95-43AF-AB34-CBDDECB4F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE72763-5A99-4827-83ED-FDF62EC30559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -1621,31 +1621,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5%的魔法伤害。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>攻击命中时造成敌方最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>6%的魔法伤害。</t>
     </r>
     <r>
@@ -1752,10 +1727,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[3,0.23]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>[远程、虔诚、乐器、勾月]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1852,10 +1823,6 @@
     <t>倒影</t>
   </si>
   <si>
-    <t>[1,0.15]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>[1,0.20]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1928,6 +1895,10 @@
       </rPr>
       <t>*2</t>
     </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.10]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2513,11 +2484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2773,11 +2744,11 @@
         <v>1.5</v>
       </c>
       <c r="I5" s="23">
-        <f t="shared" ref="I5:I56" si="0">$E5*$H5*(1-L5)</f>
+        <f t="shared" ref="I5:I53" si="0">$E5*$H5*(1-L5)</f>
         <v>21</v>
       </c>
       <c r="J5" s="23">
-        <f t="shared" ref="J5:J56" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
+        <f t="shared" ref="J5:J43" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
         <v>58.5</v>
       </c>
       <c r="K5" s="7">
@@ -4953,13 +4924,13 @@
         <v>144</v>
       </c>
       <c r="D36" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -4969,11 +4940,11 @@
       </c>
       <c r="I36" s="23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31.25</v>
       </c>
       <c r="J36" s="23">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>81.25</v>
       </c>
       <c r="K36" s="7">
         <v>7</v>
@@ -4988,78 +4959,78 @@
         <v>153</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" ref="P36:P49" si="14">IF(LEN($F36)&gt;=4,VALUE(MID($F36,4,4)),0)</f>
-        <v>0.35</v>
+        <f t="shared" ref="P36:P96" si="14">IF(LEN($F36)&gt;=4,VALUE(MID($F36,4,4)),0)</f>
+        <v>0.4</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" ref="Q36:Q49" si="15">IF(LEN($F36)&gt;=13,VALUE(MID($F36,13,4)),0)</f>
+        <f t="shared" ref="Q36:Q96" si="15">IF(LEN($F36)&gt;=13,VALUE(MID($F36,13,4)),0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="16">
-        <f t="shared" ref="R36:R49" si="16">IF(LEN($F36)&gt;=22,VALUE(MID($F36,22,4)),0)</f>
+        <f t="shared" ref="R36:R96" si="16">IF(LEN($F36)&gt;=22,VALUE(MID($F36,22,4)),0)</f>
         <v>0</v>
       </c>
       <c r="S36" s="16">
-        <f t="shared" ref="S36:S49" si="17">IF(LEN($F36)&gt;=31,VALUE(MID($F36,31,4)),0)</f>
+        <f t="shared" ref="S36:S96" si="17">IF(LEN($F36)&gt;=31,VALUE(MID($F36,31,4)),0)</f>
         <v>0</v>
       </c>
       <c r="T36" s="16">
-        <f t="shared" ref="T36:T49" si="18">IF(LEN($F36)&gt;=40,VALUE(MID($F36,40,4)),0)</f>
+        <f t="shared" ref="T36:T96" si="18">IF(LEN($F36)&gt;=40,VALUE(MID($F36,40,4)),0)</f>
         <v>0</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" ref="U36:U49" si="19">IF(LEN($F36)&gt;=49,VALUE(MID($F36,49,4)),0)</f>
+        <f t="shared" ref="U36:U96" si="19">IF(LEN($F36)&gt;=49,VALUE(MID($F36,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
         <v>5</v>
       </c>
-      <c r="E37" s="7">
-        <v>25</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
       </c>
       <c r="H37" s="7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>5</v>
       </c>
       <c r="J37" s="23">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>30</v>
       </c>
       <c r="K37" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" s="7">
         <v>0</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O37" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P37" s="16">
         <f t="shared" si="14"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="15"/>
@@ -5087,19 +5058,19 @@
         <v>10</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
+      <c r="D38" s="25">
+        <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -5109,11 +5080,11 @@
       </c>
       <c r="I38" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J38" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K38" s="7">
         <v>6</v>
@@ -5129,7 +5100,7 @@
       </c>
       <c r="P38" s="16">
         <f t="shared" si="14"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="15"/>
@@ -5157,19 +5128,19 @@
         <v>10</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="25">
-        <v>3</v>
+      <c r="D39" s="7">
+        <v>5</v>
       </c>
       <c r="E39" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -5179,11 +5150,11 @@
       </c>
       <c r="I39" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J39" s="23">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K39" s="7">
         <v>6</v>
@@ -5199,7 +5170,7 @@
       </c>
       <c r="P39" s="16">
         <f t="shared" si="14"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" si="15"/>
@@ -5224,22 +5195,22 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>163</v>
       </c>
       <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
         <v>5</v>
       </c>
-      <c r="E40" s="7">
-        <v>15</v>
-      </c>
       <c r="F40" s="25" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -5249,27 +5220,27 @@
       </c>
       <c r="I40" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J40" s="23">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K40" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L40" s="7">
         <v>0</v>
       </c>
       <c r="M40" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P40" s="16">
         <f t="shared" si="14"/>
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" si="15"/>
@@ -5297,16 +5268,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>160</v>
@@ -5319,11 +5290,11 @@
       </c>
       <c r="I41" s="23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J41" s="23">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K41" s="7">
         <v>8</v>
@@ -5335,11 +5306,11 @@
         <v>0</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P41" s="16">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="Q41" s="16">
         <f t="shared" si="15"/>
@@ -5367,16 +5338,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>161</v>
@@ -5389,11 +5360,11 @@
       </c>
       <c r="I42" s="23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J42" s="23">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K42" s="7">
         <v>8</v>
@@ -5405,11 +5376,11 @@
         <v>0</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P42" s="16">
         <f t="shared" si="14"/>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="15"/>
@@ -5437,19 +5408,19 @@
         <v>11</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D43" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -5459,11 +5430,11 @@
       </c>
       <c r="I43" s="23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J43" s="23">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K43" s="7">
         <v>8</v>
@@ -5475,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P43" s="16">
         <f t="shared" si="14"/>
@@ -5504,22 +5475,22 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -5529,14 +5500,14 @@
       </c>
       <c r="I44" s="23">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J44" s="23">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f>($E44+(SUM($P44:$U44)*100))*$H44*(1-L44)</f>
+        <v>50</v>
       </c>
       <c r="K44" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L44" s="7">
         <v>0</v>
@@ -5544,12 +5515,12 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="O44" s="26" t="s">
-        <v>166</v>
+      <c r="N44" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="P44" s="16">
         <f t="shared" si="14"/>
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="Q44" s="16">
         <f t="shared" si="15"/>
@@ -5574,22 +5545,22 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -5599,14 +5570,14 @@
       </c>
       <c r="I45" s="23">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" ref="J45:J53" si="20">($E45+(SUM($P45:$U45)*100))*$H45*(1-L45)</f>
+        <v>65</v>
       </c>
       <c r="K45" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L45" s="7">
         <v>0</v>
@@ -5614,8 +5585,8 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="O45" s="26" t="s">
-        <v>166</v>
+      <c r="N45" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="P45" s="16">
         <f t="shared" si="14"/>
@@ -5647,19 +5618,19 @@
         <v>12</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D46" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E46" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -5669,11 +5640,11 @@
       </c>
       <c r="I46" s="23">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J46" s="23">
-        <f>($E46+(SUM($P46:$U46)*100))*$H46*(1-L46)</f>
-        <v>50</v>
+        <f t="shared" si="20"/>
+        <v>95</v>
       </c>
       <c r="K46" s="7">
         <v>2</v>
@@ -5689,7 +5660,7 @@
       </c>
       <c r="P46" s="16">
         <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="Q46" s="16">
         <f t="shared" si="15"/>
@@ -5714,52 +5685,49 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D47" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
       </c>
       <c r="H47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="23">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J47" s="23">
-        <f t="shared" ref="J47:J56" si="20">($E47+(SUM($P47:$U47)*100))*$H47*(1-L47)</f>
-        <v>65</v>
+        <f t="shared" si="20"/>
+        <v>30</v>
       </c>
       <c r="K47" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L47" s="7">
         <v>0</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="P47" s="16">
         <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q47" s="16">
         <f t="shared" si="15"/>
@@ -5784,52 +5752,49 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D48" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
       </c>
       <c r="H48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="23">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J48" s="23">
         <f t="shared" si="20"/>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K48" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L48" s="7">
         <v>0</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
-      </c>
-      <c r="N48" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="P48" s="16">
         <f t="shared" si="14"/>
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="Q48" s="16">
         <f t="shared" si="15"/>
@@ -5857,19 +5822,19 @@
         <v>13</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D49" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -5879,11 +5844,11 @@
       </c>
       <c r="I49" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J49" s="23">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K49" s="7">
         <v>8</v>
@@ -5896,7 +5861,7 @@
       </c>
       <c r="P49" s="16">
         <f t="shared" si="14"/>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="Q49" s="16">
         <f t="shared" si="15"/>
@@ -5924,19 +5889,19 @@
         <v>13</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D50" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -5946,11 +5911,11 @@
       </c>
       <c r="I50" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J50" s="23">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K50" s="7">
         <v>8</v>
@@ -5961,128 +5926,200 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
+      <c r="P50" s="16">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q50" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D51" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
       </c>
       <c r="H51" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="23">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J51" s="23">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K51" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L51" s="7">
         <v>0</v>
       </c>
       <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="16">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q51" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D52" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
       </c>
       <c r="H52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="23">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J52" s="23">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K52" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L52" s="7">
         <v>0</v>
       </c>
       <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q52" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="7">
         <v>5</v>
       </c>
       <c r="E53" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
       </c>
       <c r="H53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="23">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J53" s="23">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K53" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L53" s="7">
         <v>0</v>
@@ -6090,133 +6127,2186 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
+      <c r="P53" s="16">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q53" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
-        <v>14</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7">
-        <v>20</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I54" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J54" s="23">
-        <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="K54" s="7">
-        <v>1</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-      <c r="M54" s="7">
+      <c r="P54" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>14</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="7">
-        <v>3</v>
-      </c>
-      <c r="E55" s="7">
-        <v>30</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I55" s="23">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="J55" s="23">
-        <f t="shared" si="20"/>
-        <v>22.5</v>
-      </c>
-      <c r="K55" s="7">
-        <v>1</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
+      <c r="P55" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="16">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
-        <v>14</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="7">
-        <v>5</v>
-      </c>
-      <c r="E56" s="7">
-        <v>40</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="I56" s="23">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J56" s="23">
-        <f t="shared" si="20"/>
-        <v>30</v>
-      </c>
-      <c r="K56" s="7">
-        <v>1</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-      <c r="M56" s="7">
+      <c r="P56" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P57" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P58" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P59" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P60" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P61" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P62" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P63" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P64" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P65" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P66" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P67" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P68" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P69" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P70" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T70" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P71" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P72" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P73" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P74" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P75" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P76" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P77" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P78" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P79" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P80" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P81" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P82" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P83" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P84" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P85" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P86" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P87" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R87" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P88" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P89" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P90" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P91" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P92" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P93" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P94" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P95" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P96" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P97" s="16">
+        <f t="shared" ref="P97:P136" si="21">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="16">
+        <f t="shared" ref="Q97:Q136" si="22">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R97" s="16">
+        <f t="shared" ref="R97:R136" si="23">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="16">
+        <f t="shared" ref="S97:S136" si="24">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T97" s="16">
+        <f t="shared" ref="T97:T136" si="25">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U97" s="16">
+        <f t="shared" ref="U97:U136" si="26">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P98" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P99" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P100" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P101" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P102" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P103" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P104" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P105" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P106" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T106" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P107" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P108" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P109" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P110" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P111" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P112" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P113" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P114" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T114" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P115" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R115" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S115" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T115" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P116" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R116" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T116" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P117" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S117" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T117" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P118" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S118" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P119" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S119" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T119" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P120" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P121" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T121" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P122" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T122" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P123" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P124" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S124" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T124" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P125" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T125" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P126" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S126" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T126" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P127" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T127" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P128" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S128" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T128" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P129" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S129" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T129" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P130" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S130" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T130" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P131" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S131" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T131" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P132" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R132" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T132" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P133" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S133" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P134" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P135" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R135" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S135" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T135" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P136" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S136" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T136" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="16">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -6569,10 +8659,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -6595,7 +8685,7 @@
         <v>0.65517241379310343</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE72763-5A99-4827-83ED-FDF62EC30559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32470-EF93-4CC8-92A1-408B6EE8D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
   <si>
     <t>ID</t>
   </si>
@@ -1901,12 +1901,801 @@
     <t>[1,0.10]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>[远程、魔法、法器、镜]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有眩晕，魅惑的敌人法术攻击额外加[0,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有眩晕，魅惑的敌人法术攻击额外加[0,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.38]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有眩晕，魅惑的敌人法术攻击额外加[0,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.43]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有眩晕，魅惑的敌人法术攻击额外加[0,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、物理、链器、铁铸吊灯]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁铸吊灯</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.25],[2,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.30],[2,0.17]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.35],[2,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.45],[2,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、锐器、华贵的黄金匕首]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵的黄金匕首</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贪婪之章时，额外获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的吸血，与华贵的黄金甲搭配，攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贪婪之章时，额外获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的吸血，与华贵的黄金甲搭配，攻击增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、锐器、米迦勒的权杖碎片]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>米迦勒的权杖碎片</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当玩家罪行高的时候，每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血量。攻击成功后对精英及以上的怪物造成持续伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每一回合3次，持续1回合</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当玩家罪行高的时候，每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血量。攻击成功后对精英及以上的怪物造成持续伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每一回合3次，持续2回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当玩家罪行高的时候，每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血量。攻击成功后对精英及以上的怪物造成持续伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每一回合3次，持续3回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当玩家罪行高的时候，每回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血量。攻击成功后对精英及以上的怪物造成持续伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每一回合3次，持续4回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、法杖、纸魔杖]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸魔杖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵的黄金甲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在贪婪之章时，护盾回复会扣除玩家一回合获得的金额的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，搭配华贵的黄金匕首，额外获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">点护盾 </t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在贪婪之章时，护盾回复会扣除玩家一回合获得的金额的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，搭配华贵的黄金匕首，额外获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点护盾</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[盔甲、华贵的黄金甲]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[头饰、染血之冠]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>染血之冠</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击，移速，防御，回血，全方面提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2%</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在贪婪和傲慢之章有嘲讽效果</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击，移速，防御，回血，全方面提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击，移速，防御，回血，全方面提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4%</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击，移速，防御，回血，全方面提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6%</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、魔法、钝器、弥达斯的点金锤]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥达斯的点金锤</t>
+  </si>
+  <si>
+    <t>[2,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.40]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、爆炸物、纵火狂]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵火狂</t>
+  </si>
+  <si>
+    <t>[1,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据装备者已经损失的生命值，附加额外伤害</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、物理、钝器、憎恶天秤]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>憎恶天秤</t>
+  </si>
+  <si>
+    <t>[1,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每回合一次，当玩家当前血量百分比低于最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，下一次攻击造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>125%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每回合一次，当玩家当前血量百分比低于最大生命值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，下一次攻击造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>125%的伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、盾牌、坚守阵地]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚守阵地</t>
+  </si>
+  <si>
+    <t>[4,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每次承受虔诚伤害，都会获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大生命值，并增加X%防御强度。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,6 +2825,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2098,7 +2909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,9 +2976,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,6 +2987,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2486,27 +3309,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="7" customWidth="1"/>
     <col min="4" max="4" width="13" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.75" style="7" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="29.625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="7" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="7" customWidth="1"/>
     <col min="12" max="13" width="10" style="7" customWidth="1"/>
     <col min="14" max="14" width="30.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="55.5" style="15" customWidth="1"/>
+    <col min="15" max="15" width="100.625" style="15" customWidth="1"/>
     <col min="16" max="19" width="10.125" style="16" customWidth="1"/>
     <col min="20" max="24" width="9.625" style="7" customWidth="1"/>
     <col min="25" max="16384" width="8.875" style="7"/>
@@ -2645,7 +3468,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
-      <c r="O3" s="22"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -2672,11 +3495,11 @@
       <c r="H4" s="7">
         <v>1.5</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f>$E4*$H4*(1-L4)</f>
         <v>15</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <f>($E4+(SUM($P4:$U4)*100))*$H4*(1-L4)</f>
         <v>52.5</v>
       </c>
@@ -2690,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="19"/>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="29" t="s">
         <v>35</v>
       </c>
       <c r="P4" s="16">
@@ -2743,11 +3566,11 @@
       <c r="H5" s="7">
         <v>1.5</v>
       </c>
-      <c r="I5" s="23">
-        <f t="shared" ref="I5:I53" si="0">$E5*$H5*(1-L5)</f>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5:I68" si="0">$E5*$H5*(1-L5)</f>
         <v>21</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <f t="shared" ref="J5:J43" si="1">($E5+(SUM($P5:$U5)*100))*$H5*(1-L5)</f>
         <v>58.5</v>
       </c>
@@ -2761,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="19"/>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="29" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="16">
@@ -2814,11 +3637,11 @@
       <c r="H6" s="7">
         <v>1.5</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <f t="shared" si="1"/>
         <v>64.5</v>
       </c>
@@ -2832,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="19"/>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="29" t="s">
         <v>37</v>
       </c>
       <c r="P6" s="16">
@@ -2885,11 +3708,11 @@
       <c r="H7" s="7">
         <v>1.5</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -2903,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="19"/>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="16">
@@ -2956,11 +3779,11 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -2973,7 +3796,7 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="28" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="16">
@@ -3026,11 +3849,11 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -3043,7 +3866,7 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="28" t="s">
         <v>42</v>
       </c>
       <c r="P9" s="16">
@@ -3096,11 +3919,11 @@
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>58.5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
@@ -3113,7 +3936,7 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="28" t="s">
         <v>42</v>
       </c>
       <c r="P10" s="16">
@@ -3166,11 +3989,11 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>93.5</v>
       </c>
@@ -3183,7 +4006,7 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="22"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
@@ -3234,11 +4057,11 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -3251,7 +4074,7 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="28" t="s">
         <v>46</v>
       </c>
       <c r="P12" s="16">
@@ -3304,11 +4127,11 @@
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -3321,7 +4144,7 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="28" t="s">
         <v>46</v>
       </c>
       <c r="P13" s="16">
@@ -3374,11 +4197,11 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -3391,7 +4214,7 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="28" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="16">
@@ -3444,11 +4267,11 @@
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3461,7 +4284,7 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="28" t="s">
         <v>46</v>
       </c>
       <c r="P15" s="16">
@@ -3514,11 +4337,11 @@
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -3531,7 +4354,7 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="16">
         <f t="shared" si="2"/>
         <v>0.4</v>
@@ -3582,11 +4405,11 @@
       <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -3599,7 +4422,7 @@
       <c r="M17" s="7">
         <v>0</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="16">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -3650,11 +4473,11 @@
       <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -3667,7 +4490,7 @@
       <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="16">
         <f t="shared" si="2"/>
         <v>0.8</v>
@@ -3718,11 +4541,11 @@
       <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -3735,7 +4558,7 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="29" t="s">
         <v>53</v>
       </c>
       <c r="P19" s="16">
@@ -3788,11 +4611,11 @@
       <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -3808,7 +4631,7 @@
       <c r="N20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="29" t="s">
         <v>58</v>
       </c>
       <c r="P20" s="16">
@@ -3861,11 +4684,11 @@
       <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3881,7 +4704,7 @@
       <c r="N21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="29" t="s">
         <v>60</v>
       </c>
       <c r="P21" s="16">
@@ -3934,11 +4757,11 @@
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -3954,7 +4777,7 @@
       <c r="N22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="29" t="s">
         <v>62</v>
       </c>
       <c r="P22" s="16">
@@ -4007,11 +4830,11 @@
       <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -4027,7 +4850,7 @@
       <c r="N23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="29" t="s">
         <v>64</v>
       </c>
       <c r="P23" s="16">
@@ -4080,11 +4903,11 @@
       <c r="H24" s="7">
         <v>0.5</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4097,7 +4920,7 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="29" t="s">
         <v>68</v>
       </c>
       <c r="P24" s="16">
@@ -4150,11 +4973,11 @@
       <c r="H25" s="7">
         <v>0.75</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
@@ -4167,7 +4990,7 @@
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="29" t="s">
         <v>68</v>
       </c>
       <c r="P25" s="16">
@@ -4220,11 +5043,11 @@
       <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -4237,7 +5060,7 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="29" t="s">
         <v>68</v>
       </c>
       <c r="P26" s="16">
@@ -4269,10 +5092,10 @@
       <c r="A27" s="7">
         <v>7</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="7">
@@ -4281,7 +5104,7 @@
       <c r="E27" s="7">
         <v>12</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>127</v>
       </c>
       <c r="G27" s="7">
@@ -4290,11 +5113,11 @@
       <c r="H27" s="7">
         <v>1.25</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <f t="shared" si="1"/>
         <v>58.75</v>
       </c>
@@ -4307,10 +5130,10 @@
       <c r="M27" s="7">
         <v>0.2</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="30" t="s">
         <v>131</v>
       </c>
       <c r="P27" s="16">
@@ -4342,10 +5165,10 @@
       <c r="A28" s="7">
         <v>7</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D28" s="7">
@@ -4354,7 +5177,7 @@
       <c r="E28" s="7">
         <v>16</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="7">
@@ -4363,11 +5186,11 @@
       <c r="H28" s="7">
         <v>1.25</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <f t="shared" si="1"/>
         <v>63.75</v>
       </c>
@@ -4380,10 +5203,10 @@
       <c r="M28" s="7">
         <v>0.2</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="30" t="s">
         <v>132</v>
       </c>
       <c r="P28" s="16">
@@ -4415,10 +5238,10 @@
       <c r="A29" s="7">
         <v>7</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D29" s="7">
@@ -4427,7 +5250,7 @@
       <c r="E29" s="7">
         <v>20</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>127</v>
       </c>
       <c r="G29" s="7">
@@ -4436,11 +5259,11 @@
       <c r="H29" s="7">
         <v>1.25</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <f>$E29*$H29*(1-L29)</f>
         <v>25</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
@@ -4453,10 +5276,10 @@
       <c r="M29" s="7">
         <v>0.2</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="O29" s="26" t="s">
+      <c r="O29" s="30" t="s">
         <v>132</v>
       </c>
       <c r="P29" s="16">
@@ -4488,10 +5311,10 @@
       <c r="A30" s="7">
         <v>8</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="7">
@@ -4500,7 +5323,7 @@
       <c r="E30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G30" s="7">
@@ -4509,11 +5332,11 @@
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4526,10 +5349,10 @@
       <c r="M30" s="7">
         <v>0</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O30" s="30" t="s">
         <v>139</v>
       </c>
       <c r="P30" s="16">
@@ -4561,7 +5384,7 @@
       <c r="A31" s="7">
         <v>8</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -4573,7 +5396,7 @@
       <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>136</v>
       </c>
       <c r="G31" s="7">
@@ -4582,11 +5405,11 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4599,10 +5422,10 @@
       <c r="M31" s="7">
         <v>0</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="30" t="s">
         <v>140</v>
       </c>
       <c r="P31" s="16">
@@ -4634,7 +5457,7 @@
       <c r="A32" s="7">
         <v>8</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -4646,7 +5469,7 @@
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G32" s="7">
@@ -4655,11 +5478,11 @@
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4672,10 +5495,10 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="30" t="s">
         <v>141</v>
       </c>
       <c r="P32" s="16">
@@ -4707,10 +5530,10 @@
       <c r="A33" s="7">
         <v>9</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="7">
@@ -4719,7 +5542,7 @@
       <c r="E33" s="7">
         <v>5</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>145</v>
       </c>
       <c r="G33" s="7">
@@ -4728,11 +5551,11 @@
       <c r="H33" s="7">
         <v>1.25</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
@@ -4745,7 +5568,7 @@
       <c r="M33" s="7">
         <v>0</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="30" t="s">
         <v>150</v>
       </c>
       <c r="P33" s="16">
@@ -4777,10 +5600,10 @@
       <c r="A34" s="7">
         <v>9</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="7">
@@ -4789,7 +5612,7 @@
       <c r="E34" s="7">
         <v>10</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>146</v>
       </c>
       <c r="G34" s="7">
@@ -4798,11 +5621,11 @@
       <c r="H34" s="7">
         <v>1.25</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <f t="shared" si="1"/>
         <v>43.75</v>
       </c>
@@ -4815,7 +5638,7 @@
       <c r="M34" s="7">
         <v>0</v>
       </c>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="30" t="s">
         <v>151</v>
       </c>
       <c r="P34" s="16">
@@ -4847,10 +5670,10 @@
       <c r="A35" s="7">
         <v>9</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="7">
@@ -4859,7 +5682,7 @@
       <c r="E35" s="7">
         <v>15</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>147</v>
       </c>
       <c r="G35" s="7">
@@ -4868,11 +5691,11 @@
       <c r="H35" s="7">
         <v>1.25</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
@@ -4885,7 +5708,7 @@
       <c r="M35" s="7">
         <v>0</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="30" t="s">
         <v>152</v>
       </c>
       <c r="P35" s="16">
@@ -4917,10 +5740,10 @@
       <c r="A36" s="7">
         <v>9</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="7">
@@ -4929,7 +5752,7 @@
       <c r="E36" s="7">
         <v>25</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>149</v>
       </c>
       <c r="G36" s="7">
@@ -4938,11 +5761,11 @@
       <c r="H36" s="7">
         <v>1.25</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <f t="shared" si="1"/>
         <v>81.25</v>
       </c>
@@ -4955,7 +5778,7 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="O36" s="30" t="s">
         <v>153</v>
       </c>
       <c r="P36" s="16">
@@ -4987,7 +5810,7 @@
       <c r="A37" s="7">
         <v>10</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -4999,7 +5822,7 @@
       <c r="E37" s="7">
         <v>5</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="7">
@@ -5008,11 +5831,11 @@
       <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5025,7 +5848,7 @@
       <c r="M37" s="7">
         <v>0.1</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="30" t="s">
         <v>156</v>
       </c>
       <c r="P37" s="16">
@@ -5057,19 +5880,19 @@
       <c r="A38" s="7">
         <v>10</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <v>3</v>
       </c>
       <c r="E38" s="7">
         <v>10</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>147</v>
       </c>
       <c r="G38" s="7">
@@ -5078,11 +5901,11 @@
       <c r="H38" s="7">
         <v>1</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5095,7 +5918,7 @@
       <c r="M38" s="7">
         <v>0.1</v>
       </c>
-      <c r="O38" s="26" t="s">
+      <c r="O38" s="30" t="s">
         <v>157</v>
       </c>
       <c r="P38" s="16">
@@ -5127,7 +5950,7 @@
       <c r="A39" s="7">
         <v>10</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5139,7 +5962,7 @@
       <c r="E39" s="7">
         <v>15</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>148</v>
       </c>
       <c r="G39" s="7">
@@ -5148,11 +5971,11 @@
       <c r="H39" s="7">
         <v>1</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -5165,7 +5988,7 @@
       <c r="M39" s="7">
         <v>0.1</v>
       </c>
-      <c r="O39" s="26" t="s">
+      <c r="O39" s="30" t="s">
         <v>158</v>
       </c>
       <c r="P39" s="16">
@@ -5197,10 +6020,10 @@
       <c r="A40" s="7">
         <v>11</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D40" s="7">
@@ -5209,7 +6032,7 @@
       <c r="E40" s="7">
         <v>5</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>159</v>
       </c>
       <c r="G40" s="7">
@@ -5218,11 +6041,11 @@
       <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5235,7 +6058,7 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="O40" s="26" t="s">
+      <c r="O40" s="30" t="s">
         <v>164</v>
       </c>
       <c r="P40" s="16">
@@ -5267,10 +6090,10 @@
       <c r="A41" s="7">
         <v>11</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D41" s="7">
@@ -5279,7 +6102,7 @@
       <c r="E41" s="7">
         <v>8</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>160</v>
       </c>
       <c r="G41" s="7">
@@ -5288,11 +6111,11 @@
       <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -5305,7 +6128,7 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="O41" s="26" t="s">
+      <c r="O41" s="30" t="s">
         <v>164</v>
       </c>
       <c r="P41" s="16">
@@ -5337,10 +6160,10 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D42" s="7">
@@ -5349,7 +6172,7 @@
       <c r="E42" s="7">
         <v>12</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>161</v>
       </c>
       <c r="G42" s="7">
@@ -5358,11 +6181,11 @@
       <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -5375,7 +6198,7 @@
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="O42" s="26" t="s">
+      <c r="O42" s="30" t="s">
         <v>164</v>
       </c>
       <c r="P42" s="16">
@@ -5407,10 +6230,10 @@
       <c r="A43" s="7">
         <v>11</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D43" s="7">
@@ -5419,7 +6242,7 @@
       <c r="E43" s="7">
         <v>25</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>161</v>
       </c>
       <c r="G43" s="7">
@@ -5428,11 +6251,11 @@
       <c r="H43" s="7">
         <v>1</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -5445,7 +6268,7 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="O43" s="26" t="s">
+      <c r="O43" s="30" t="s">
         <v>164</v>
       </c>
       <c r="P43" s="16">
@@ -5477,10 +6300,10 @@
       <c r="A44" s="7">
         <v>12</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="7">
@@ -5489,7 +6312,7 @@
       <c r="E44" s="7">
         <v>30</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G44" s="7">
@@ -5498,11 +6321,11 @@
       <c r="H44" s="7">
         <v>1</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <f>($E44+(SUM($P44:$U44)*100))*$H44*(1-L44)</f>
         <v>50</v>
       </c>
@@ -5515,9 +6338,10 @@
       <c r="M44" s="7">
         <v>0</v>
       </c>
-      <c r="N44" s="25" t="s">
+      <c r="N44" s="24" t="s">
         <v>167</v>
       </c>
+      <c r="O44" s="29"/>
       <c r="P44" s="16">
         <f t="shared" si="14"/>
         <v>0.2</v>
@@ -5547,10 +6371,10 @@
       <c r="A45" s="7">
         <v>12</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D45" s="7">
@@ -5559,7 +6383,7 @@
       <c r="E45" s="7">
         <v>45</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G45" s="7">
@@ -5568,12 +6392,12 @@
       <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J45" s="23">
-        <f t="shared" ref="J45:J53" si="20">($E45+(SUM($P45:$U45)*100))*$H45*(1-L45)</f>
+      <c r="J45" s="22">
+        <f t="shared" ref="J45:J54" si="20">($E45+(SUM($P45:$U45)*100))*$H45*(1-L45)</f>
         <v>65</v>
       </c>
       <c r="K45" s="7">
@@ -5585,9 +6409,10 @@
       <c r="M45" s="7">
         <v>0</v>
       </c>
-      <c r="N45" s="25" t="s">
+      <c r="N45" s="24" t="s">
         <v>168</v>
       </c>
+      <c r="O45" s="29"/>
       <c r="P45" s="16">
         <f t="shared" si="14"/>
         <v>0.2</v>
@@ -5617,10 +6442,10 @@
       <c r="A46" s="7">
         <v>12</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D46" s="7">
@@ -5629,7 +6454,7 @@
       <c r="E46" s="7">
         <v>60</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>127</v>
       </c>
       <c r="G46" s="7">
@@ -5638,11 +6463,11 @@
       <c r="H46" s="7">
         <v>1</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
@@ -5655,9 +6480,10 @@
       <c r="M46" s="7">
         <v>0</v>
       </c>
-      <c r="N46" s="25" t="s">
+      <c r="N46" s="24" t="s">
         <v>169</v>
       </c>
+      <c r="O46" s="29"/>
       <c r="P46" s="16">
         <f t="shared" si="14"/>
         <v>0.35</v>
@@ -5687,7 +6513,7 @@
       <c r="A47" s="7">
         <v>13</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5699,7 +6525,7 @@
       <c r="E47" s="7">
         <v>5</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>178</v>
       </c>
       <c r="G47" s="7">
@@ -5708,11 +6534,11 @@
       <c r="H47" s="7">
         <v>2</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <f t="shared" si="20"/>
         <v>30</v>
       </c>
@@ -5725,6 +6551,7 @@
       <c r="M47" s="7">
         <v>0</v>
       </c>
+      <c r="O47" s="29"/>
       <c r="P47" s="16">
         <f t="shared" si="14"/>
         <v>0.1</v>
@@ -5754,7 +6581,7 @@
       <c r="A48" s="7">
         <v>13</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -5766,7 +6593,7 @@
       <c r="E48" s="7">
         <v>10</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>172</v>
       </c>
       <c r="G48" s="7">
@@ -5775,11 +6602,11 @@
       <c r="H48" s="7">
         <v>2</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <f t="shared" si="20"/>
         <v>60</v>
       </c>
@@ -5792,6 +6619,7 @@
       <c r="M48" s="7">
         <v>0</v>
       </c>
+      <c r="O48" s="29"/>
       <c r="P48" s="16">
         <f t="shared" si="14"/>
         <v>0.2</v>
@@ -5821,7 +6649,7 @@
       <c r="A49" s="7">
         <v>13</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5833,7 +6661,7 @@
       <c r="E49" s="7">
         <v>15</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G49" s="7">
@@ -5842,11 +6670,11 @@
       <c r="H49" s="7">
         <v>2</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
@@ -5859,6 +6687,7 @@
       <c r="M49" s="7">
         <v>0</v>
       </c>
+      <c r="O49" s="29"/>
       <c r="P49" s="16">
         <f t="shared" si="14"/>
         <v>0.25</v>
@@ -5888,7 +6717,7 @@
       <c r="A50" s="7">
         <v>13</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -5900,7 +6729,7 @@
       <c r="E50" s="7">
         <v>25</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G50" s="7">
@@ -5909,11 +6738,11 @@
       <c r="H50" s="7">
         <v>2</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
@@ -5926,6 +6755,7 @@
       <c r="M50" s="7">
         <v>0</v>
       </c>
+      <c r="O50" s="29"/>
       <c r="P50" s="16">
         <f t="shared" si="14"/>
         <v>0.25</v>
@@ -5955,7 +6785,7 @@
       <c r="A51" s="7">
         <v>14</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -5967,7 +6797,7 @@
       <c r="E51" s="7">
         <v>20</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="24" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="7">
@@ -5976,11 +6806,11 @@
       <c r="H51" s="7">
         <v>1</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
@@ -5993,6 +6823,7 @@
       <c r="M51" s="7">
         <v>0</v>
       </c>
+      <c r="O51" s="29"/>
       <c r="P51" s="16">
         <f t="shared" si="14"/>
         <v>0.3</v>
@@ -6022,7 +6853,7 @@
       <c r="A52" s="7">
         <v>14</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -6034,7 +6865,7 @@
       <c r="E52" s="7">
         <v>30</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>127</v>
       </c>
       <c r="G52" s="7">
@@ -6043,11 +6874,11 @@
       <c r="H52" s="7">
         <v>1</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <f t="shared" si="20"/>
         <v>65</v>
       </c>
@@ -6060,6 +6891,7 @@
       <c r="M52" s="7">
         <v>0</v>
       </c>
+      <c r="O52" s="29"/>
       <c r="P52" s="16">
         <f t="shared" si="14"/>
         <v>0.35</v>
@@ -6089,7 +6921,7 @@
       <c r="A53" s="7">
         <v>14</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -6101,7 +6933,7 @@
       <c r="E53" s="7">
         <v>40</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G53" s="7">
@@ -6110,11 +6942,11 @@
       <c r="H53" s="7">
         <v>1</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
@@ -6127,6 +6959,7 @@
       <c r="M53" s="7">
         <v>0</v>
       </c>
+      <c r="O53" s="29"/>
       <c r="P53" s="16">
         <f t="shared" si="14"/>
         <v>0.4</v>
@@ -6153,9 +6986,54 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="24">
+        <v>15</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="24">
+        <v>15</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I54" s="26">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="J54" s="26">
+        <f t="shared" si="20"/>
+        <v>56.25</v>
+      </c>
+      <c r="K54" s="24">
+        <v>8</v>
+      </c>
+      <c r="L54" s="24">
+        <v>0</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24"/>
+      <c r="O54" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="P54" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q54" s="16">
         <f t="shared" si="15"/>
@@ -6179,9 +7057,54 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="24">
+        <v>15</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="24">
+        <v>2</v>
+      </c>
+      <c r="E55" s="24">
+        <v>20</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+      <c r="H55" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J55" s="26">
+        <f t="shared" ref="J55:J82" si="21">($E55+(SUM($P55:$U55)*100))*$H55*(1-L55)</f>
+        <v>68.75</v>
+      </c>
+      <c r="K55" s="24">
+        <v>8</v>
+      </c>
+      <c r="L55" s="24">
+        <v>0</v>
+      </c>
+      <c r="M55" s="24">
+        <v>0</v>
+      </c>
+      <c r="N55" s="24"/>
+      <c r="O55" s="30" t="s">
+        <v>182</v>
+      </c>
       <c r="P55" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q55" s="16">
         <f t="shared" si="15"/>
@@ -6205,9 +7128,54 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="24">
+        <v>15</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="24">
+        <v>3</v>
+      </c>
+      <c r="E56" s="24">
+        <v>25</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0</v>
+      </c>
+      <c r="H56" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I56" s="26">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+      <c r="J56" s="26">
+        <f t="shared" si="21"/>
+        <v>78.75</v>
+      </c>
+      <c r="K56" s="24">
+        <v>8</v>
+      </c>
+      <c r="L56" s="24">
+        <v>0</v>
+      </c>
+      <c r="M56" s="24">
+        <v>0</v>
+      </c>
+      <c r="N56" s="24"/>
+      <c r="O56" s="30" t="s">
+        <v>184</v>
+      </c>
       <c r="P56" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="Q56" s="16">
         <f t="shared" si="15"/>
@@ -6231,9 +7199,54 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="24">
+        <v>15</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="24">
+        <v>5</v>
+      </c>
+      <c r="E57" s="24">
+        <v>35</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I57" s="26">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+      <c r="J57" s="26">
+        <f t="shared" si="21"/>
+        <v>97.5</v>
+      </c>
+      <c r="K57" s="24">
+        <v>8</v>
+      </c>
+      <c r="L57" s="24">
+        <v>0</v>
+      </c>
+      <c r="M57" s="24">
+        <v>0</v>
+      </c>
+      <c r="N57" s="24"/>
+      <c r="O57" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="P57" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Q57" s="16">
         <f t="shared" si="15"/>
@@ -6257,13 +7270,56 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="24">
+        <v>16</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24">
+        <v>10</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
+        <v>1</v>
+      </c>
+      <c r="I58" s="26">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J58" s="26">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="K58" s="24">
+        <v>9</v>
+      </c>
+      <c r="L58" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="M58" s="24">
+        <v>0</v>
+      </c>
+      <c r="N58" s="24"/>
+      <c r="O58" s="30"/>
       <c r="P58" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q58" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="R58" s="16">
         <f t="shared" si="16"/>
@@ -6283,13 +7339,56 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="24">
+        <v>16</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="24">
+        <v>2</v>
+      </c>
+      <c r="E59" s="24">
+        <v>15</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="26">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="J59" s="26">
+        <f t="shared" si="21"/>
+        <v>59.519999999999996</v>
+      </c>
+      <c r="K59" s="24">
+        <v>9</v>
+      </c>
+      <c r="L59" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="M59" s="24">
+        <v>0</v>
+      </c>
+      <c r="N59" s="24"/>
+      <c r="O59" s="30"/>
       <c r="P59" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q59" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R59" s="16">
         <f t="shared" si="16"/>
@@ -6309,13 +7408,56 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="24">
+        <v>16</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="24">
+        <v>3</v>
+      </c>
+      <c r="E60" s="24">
+        <v>20</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24">
+        <v>1</v>
+      </c>
+      <c r="I60" s="26">
+        <f t="shared" si="0"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="J60" s="26">
+        <f t="shared" si="21"/>
+        <v>70.5</v>
+      </c>
+      <c r="K60" s="24">
+        <v>9</v>
+      </c>
+      <c r="L60" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="M60" s="24">
+        <v>0</v>
+      </c>
+      <c r="N60" s="24"/>
+      <c r="O60" s="30"/>
       <c r="P60" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q60" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R60" s="16">
         <f t="shared" si="16"/>
@@ -6335,13 +7477,56 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="24">
+        <v>16</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="24">
+        <v>5</v>
+      </c>
+      <c r="E61" s="24">
+        <v>25</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0</v>
+      </c>
+      <c r="H61" s="24">
+        <v>1</v>
+      </c>
+      <c r="I61" s="26">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="J61" s="26">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="K61" s="24">
+        <v>9</v>
+      </c>
+      <c r="L61" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="M61" s="24">
+        <v>0</v>
+      </c>
+      <c r="N61" s="24"/>
+      <c r="O61" s="30"/>
       <c r="P61" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Q61" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R61" s="16">
         <f t="shared" si="16"/>
@@ -6361,9 +7546,54 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="24">
+        <v>17</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="24">
+        <v>3</v>
+      </c>
+      <c r="E62" s="24">
+        <v>20</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0</v>
+      </c>
+      <c r="H62" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I62" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J62" s="26">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="K62" s="24">
+        <v>2</v>
+      </c>
+      <c r="L62" s="24">
+        <v>0</v>
+      </c>
+      <c r="M62" s="24">
+        <v>0</v>
+      </c>
+      <c r="N62" s="24"/>
+      <c r="O62" s="30" t="s">
+        <v>195</v>
+      </c>
       <c r="P62" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q62" s="16">
         <f t="shared" si="15"/>
@@ -6387,9 +7617,54 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="24">
+        <v>17</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="24">
+        <v>5</v>
+      </c>
+      <c r="E63" s="24">
+        <v>30</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+      <c r="H63" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I63" s="26">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="J63" s="26">
+        <f t="shared" si="21"/>
+        <v>81.25</v>
+      </c>
+      <c r="K63" s="24">
+        <v>2</v>
+      </c>
+      <c r="L63" s="24">
+        <v>0</v>
+      </c>
+      <c r="M63" s="24">
+        <v>0</v>
+      </c>
+      <c r="N63" s="24"/>
+      <c r="O63" s="30" t="s">
+        <v>196</v>
+      </c>
       <c r="P63" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q63" s="16">
         <f t="shared" si="15"/>
@@ -6413,9 +7688,54 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="24">
+        <v>18</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="24">
+        <v>1</v>
+      </c>
+      <c r="E64" s="24">
+        <v>15</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0</v>
+      </c>
+      <c r="H64" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I64" s="26">
+        <f t="shared" si="0"/>
+        <v>18.5625</v>
+      </c>
+      <c r="J64" s="26">
+        <f t="shared" si="21"/>
+        <v>43.3125</v>
+      </c>
+      <c r="K64" s="24">
+        <v>2</v>
+      </c>
+      <c r="L64" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="M64" s="24">
+        <v>0</v>
+      </c>
+      <c r="N64" s="24"/>
+      <c r="O64" s="30" t="s">
+        <v>199</v>
+      </c>
       <c r="P64" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q64" s="16">
         <f t="shared" si="15"/>
@@ -6438,10 +7758,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" s="24">
+        <v>18</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="24">
+        <v>2</v>
+      </c>
+      <c r="E65" s="24">
+        <v>20</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0</v>
+      </c>
+      <c r="H65" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I65" s="26">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="J65" s="26">
+        <f t="shared" si="21"/>
+        <v>55.125</v>
+      </c>
+      <c r="K65" s="24">
+        <v>2</v>
+      </c>
+      <c r="L65" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="M65" s="24">
+        <v>0</v>
+      </c>
+      <c r="N65" s="24"/>
+      <c r="O65" s="30" t="s">
+        <v>200</v>
+      </c>
       <c r="P65" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q65" s="16">
         <f t="shared" si="15"/>
@@ -6464,10 +7829,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" s="24">
+        <v>18</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="24">
+        <v>3</v>
+      </c>
+      <c r="E66" s="24">
+        <v>25</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0</v>
+      </c>
+      <c r="H66" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I66" s="26">
+        <f t="shared" si="0"/>
+        <v>30.3125</v>
+      </c>
+      <c r="J66" s="26">
+        <f t="shared" si="21"/>
+        <v>66.6875</v>
+      </c>
+      <c r="K66" s="24">
+        <v>2</v>
+      </c>
+      <c r="L66" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="M66" s="24">
+        <v>0</v>
+      </c>
+      <c r="N66" s="24"/>
+      <c r="O66" s="30" t="s">
+        <v>201</v>
+      </c>
       <c r="P66" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q66" s="16">
         <f t="shared" si="15"/>
@@ -6490,10 +7900,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" s="24">
+        <v>18</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="24">
+        <v>5</v>
+      </c>
+      <c r="E67" s="24">
+        <v>35</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0</v>
+      </c>
+      <c r="H67" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="I67" s="26">
+        <f t="shared" si="0"/>
+        <v>41.5625</v>
+      </c>
+      <c r="J67" s="26">
+        <f t="shared" si="21"/>
+        <v>89.0625</v>
+      </c>
+      <c r="K67" s="24">
+        <v>2</v>
+      </c>
+      <c r="L67" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="M67" s="24">
+        <v>0</v>
+      </c>
+      <c r="N67" s="24"/>
+      <c r="O67" s="30" t="s">
+        <v>202</v>
+      </c>
       <c r="P67" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q67" s="16">
         <f t="shared" si="15"/>
@@ -6516,10 +7971,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="24">
+        <v>19</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="24">
+        <v>1</v>
+      </c>
+      <c r="E68" s="24">
+        <v>5</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" s="24">
+        <v>0</v>
+      </c>
+      <c r="H68" s="24">
+        <v>1</v>
+      </c>
+      <c r="I68" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J68" s="26">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="K68" s="24">
+        <v>5</v>
+      </c>
+      <c r="L68" s="24">
+        <v>0</v>
+      </c>
+      <c r="M68" s="24">
+        <v>0</v>
+      </c>
+      <c r="N68" s="24"/>
+      <c r="O68" s="30"/>
       <c r="P68" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q68" s="16">
         <f t="shared" si="15"/>
@@ -6542,10 +8040,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="24">
+        <v>19</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="24">
+        <v>2</v>
+      </c>
+      <c r="E69" s="24">
+        <v>10</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0</v>
+      </c>
+      <c r="H69" s="24">
+        <v>1</v>
+      </c>
+      <c r="I69" s="26">
+        <f t="shared" ref="I69:I82" si="22">$E69*$H69*(1-L69)</f>
+        <v>10</v>
+      </c>
+      <c r="J69" s="26">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K69" s="24">
+        <v>5</v>
+      </c>
+      <c r="L69" s="24">
+        <v>0</v>
+      </c>
+      <c r="M69" s="24">
+        <v>0</v>
+      </c>
+      <c r="N69" s="24"/>
+      <c r="O69" s="30"/>
       <c r="P69" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q69" s="16">
         <f t="shared" si="15"/>
@@ -6568,10 +8109,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="24">
+        <v>19</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="24">
+        <v>3</v>
+      </c>
+      <c r="E70" s="24">
+        <v>15</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0</v>
+      </c>
+      <c r="H70" s="24">
+        <v>1</v>
+      </c>
+      <c r="I70" s="26">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="J70" s="26">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="K70" s="24">
+        <v>5</v>
+      </c>
+      <c r="L70" s="24">
+        <v>0</v>
+      </c>
+      <c r="M70" s="24">
+        <v>0</v>
+      </c>
+      <c r="N70" s="24"/>
+      <c r="O70" s="30"/>
       <c r="P70" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q70" s="16">
         <f t="shared" si="15"/>
@@ -6594,10 +8178,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>20</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3</v>
+      </c>
+      <c r="E71" s="7">
+        <v>15</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="26">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="J71" s="26">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="K71" s="7">
+        <v>2</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="29"/>
       <c r="P71" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q71" s="16">
         <f t="shared" si="15"/>
@@ -6620,10 +8246,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>20</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="7">
+        <v>5</v>
+      </c>
+      <c r="E72" s="7">
+        <v>30</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="26">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="J72" s="26">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="K72" s="7">
+        <v>2</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="29"/>
       <c r="P72" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q72" s="16">
         <f t="shared" si="15"/>
@@ -6646,10 +8314,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>21</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
+        <v>15</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="26">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="J73" s="26">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K73" s="7">
+        <v>1</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="P73" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q73" s="16">
         <f t="shared" si="15"/>
@@ -6672,10 +8384,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>21</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7">
+        <v>30</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="26">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="J74" s="26">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="K74" s="7">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="P74" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q74" s="16">
         <f t="shared" si="15"/>
@@ -6698,10 +8454,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>21</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="7">
+        <v>5</v>
+      </c>
+      <c r="E75" s="7">
+        <v>50</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+      <c r="I75" s="26">
+        <f t="shared" si="22"/>
+        <v>50</v>
+      </c>
+      <c r="J75" s="26">
+        <f t="shared" si="21"/>
+        <v>80</v>
+      </c>
+      <c r="K75" s="7">
+        <v>1</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="P75" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q75" s="16">
         <f t="shared" si="15"/>
@@ -6724,10 +8524,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" s="7">
+        <v>22</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7">
+        <v>13</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="26">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="J76" s="26">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="K76" s="7">
+        <v>5</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="25" t="s">
+        <v>231</v>
+      </c>
       <c r="P76" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q76" s="16">
         <f t="shared" si="15"/>
@@ -6750,10 +8594,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>22</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2</v>
+      </c>
+      <c r="E77" s="7">
+        <v>17</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="26">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="J77" s="26">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="K77" s="7">
+        <v>5</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="P77" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q77" s="16">
         <f t="shared" si="15"/>
@@ -6776,10 +8664,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
+        <v>22</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="7">
+        <v>3</v>
+      </c>
+      <c r="E78" s="7">
+        <v>23</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="26">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+      <c r="J78" s="26">
+        <f t="shared" si="21"/>
+        <v>43</v>
+      </c>
+      <c r="K78" s="7">
+        <v>5</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="P78" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q78" s="16">
         <f t="shared" si="15"/>
@@ -6802,10 +8734,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>22</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="7">
+        <v>5</v>
+      </c>
+      <c r="E79" s="7">
+        <v>37</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>1</v>
+      </c>
+      <c r="I79" s="26">
+        <f t="shared" si="22"/>
+        <v>37</v>
+      </c>
+      <c r="J79" s="26">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="K79" s="7">
+        <v>5</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="P79" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q79" s="16">
         <f t="shared" si="15"/>
@@ -6828,10 +8804,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
+        <v>23</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7">
+        <v>10</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>1</v>
+      </c>
+      <c r="I80" s="26">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="J80" s="26">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K80" s="7">
+        <v>1</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="P80" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q80" s="16">
         <f t="shared" si="15"/>
@@ -6854,10 +8874,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>23</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="7">
+        <v>3</v>
+      </c>
+      <c r="E81" s="7">
+        <v>15</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="26">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="J81" s="26">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="K81" s="7">
+        <v>1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="P81" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q81" s="16">
         <f t="shared" si="15"/>
@@ -6880,10 +8944,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
+        <v>23</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="7">
+        <v>5</v>
+      </c>
+      <c r="E82" s="7">
+        <v>30</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="26">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="J82" s="26">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="K82" s="7">
+        <v>1</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="25" t="s">
+        <v>238</v>
+      </c>
       <c r="P82" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="Q82" s="16">
         <f t="shared" si="15"/>
@@ -6906,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P83" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6932,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P84" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6958,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P85" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -6984,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P86" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7010,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P87" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7036,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P88" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7062,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P89" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7088,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P90" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7114,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P91" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7140,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P92" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7166,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P93" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7192,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P94" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7218,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P95" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7244,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="P96" s="16">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7272,1041 +9380,1041 @@
     </row>
     <row r="97" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P97" s="16">
-        <f t="shared" ref="P97:P136" si="21">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
+        <f t="shared" ref="P97:P136" si="23">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
         <v>0</v>
       </c>
       <c r="Q97" s="16">
-        <f t="shared" ref="Q97:Q136" si="22">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
+        <f t="shared" ref="Q97:Q136" si="24">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
         <v>0</v>
       </c>
       <c r="R97" s="16">
-        <f t="shared" ref="R97:R136" si="23">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
+        <f t="shared" ref="R97:R136" si="25">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
         <v>0</v>
       </c>
       <c r="S97" s="16">
-        <f t="shared" ref="S97:S136" si="24">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
+        <f t="shared" ref="S97:S136" si="26">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="16">
-        <f t="shared" ref="T97:T136" si="25">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
+        <f t="shared" ref="T97:T136" si="27">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
         <v>0</v>
       </c>
       <c r="U97" s="16">
-        <f t="shared" ref="U97:U136" si="26">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
+        <f t="shared" ref="U97:U136" si="28">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P98" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q98" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R98" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S98" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T98" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U98" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P99" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q99" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R99" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S99" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T99" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U99" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P100" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q100" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R100" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S100" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T100" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U100" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P101" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q101" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R101" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S101" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T101" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U101" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P102" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q102" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R102" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S102" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T102" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U102" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P103" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q103" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R103" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S103" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T103" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U103" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P104" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q104" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R104" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S104" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T104" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U104" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P105" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q105" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R105" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S105" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T105" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U105" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P106" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q106" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R106" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S106" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T106" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U106" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P107" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q107" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R107" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S107" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T107" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U107" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P108" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q108" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R108" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S108" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T108" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U108" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P109" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q109" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R109" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S109" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T109" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U109" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P110" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q110" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R110" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S110" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T110" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U110" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P111" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q111" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R111" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S111" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T111" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U111" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P112" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q112" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R112" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S112" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T112" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U112" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P113" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q113" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R113" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S113" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T113" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U113" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P114" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q114" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R114" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S114" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T114" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U114" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P115" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q115" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R115" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S115" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T115" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U115" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P116" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q116" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R116" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S116" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T116" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U116" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P117" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q117" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R117" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S117" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T117" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U117" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P118" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q118" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R118" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S118" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T118" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U118" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P119" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q119" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R119" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S119" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T119" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U119" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P120" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q120" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R120" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S120" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T120" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U120" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P121" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q121" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R121" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S121" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T121" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U121" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P122" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q122" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R122" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S122" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T122" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U122" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P123" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q123" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R123" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S123" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T123" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U123" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P124" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q124" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R124" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S124" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T124" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U124" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P125" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q125" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R125" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S125" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T125" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U125" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P126" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q126" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R126" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S126" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T126" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U126" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P127" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q127" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R127" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S127" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T127" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U127" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P128" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q128" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R128" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S128" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T128" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U128" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P129" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q129" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R129" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S129" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T129" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U129" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P130" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q130" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R130" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S130" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T130" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U130" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P131" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q131" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R131" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S131" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T131" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U131" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P132" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q132" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R132" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S132" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T132" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U132" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P133" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q133" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R133" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S133" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T133" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U133" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P134" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q134" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R134" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S134" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T134" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U134" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P135" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q135" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R135" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S135" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T135" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U135" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P136" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q136" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R136" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S136" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T136" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U136" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -8319,10 +10427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8658,10 +10766,10 @@
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="7">
@@ -8684,8 +10792,74 @@
         <f>($G11+45)/($G11+减伤率计算列表!$D$4+45)</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="24">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>60</v>
+      </c>
+      <c r="F12" s="24">
+        <v>20</v>
+      </c>
+      <c r="G12" s="24">
+        <v>40</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>4</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="24">
+        <v>5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>80</v>
+      </c>
+      <c r="F13" s="24">
+        <v>30</v>
+      </c>
+      <c r="G13" s="24">
+        <v>80</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.67</v>
+      </c>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8696,10 +10870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8967,6 +11141,86 @@
       </c>
       <c r="E14" s="7" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="24">
+        <v>4</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="24">
+        <v>4</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="24">
+        <v>4</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="24">
+        <v>3</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="24">
+        <v>4</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="24">
+        <v>5</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E32470-EF93-4CC8-92A1-408B6EE8D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5940EA-BA70-44DA-9BFC-209377FFB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -1176,9 +1176,6 @@
     <t>A武器面板伤害 = A武器基础攻击力 * (1 + A属性强度加成)</t>
   </si>
   <si>
-    <t>·属性强度加成：物理强度、魔法强度、前程强度、防御强度、A血量等，具体武器面板配置</t>
-  </si>
-  <si>
     <t>B减伤率 = B防御强度 * ( B防御强度 + 修正值 )</t>
   </si>
   <si>
@@ -2665,6 +2662,30 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>[远程、魔法、法宝、阿塔拉蝴蝶]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿塔拉蝴蝶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>每次承受虔诚伤害，都会获得</t>
     </r>
@@ -2686,8 +2707,787 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>最大生命值，并增加X%防御强度。</t>
-    </r>
+      <t>最大生命值，并增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御强度。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>命中生命值低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的敌人时会将其直接杀死。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、乐器、抚魂]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚魂</t>
+  </si>
+  <si>
+    <r>
+      <t>造成伤害时会随机治疗一名友军此次伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的血量</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、物理、暗器、恶意宣泄]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意宣泄</t>
+  </si>
+  <si>
+    <t>[1,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当角色拥有负面状态时，该武器造成的伤害会增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、钝器、“超大一根！”]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“超大一根！”</t>
+  </si>
+  <si>
+    <t>[1,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.18]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.22]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘立方体</t>
+  </si>
+  <si>
+    <t>[5,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,0.18]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、魔法、盾牌、神秘立方体]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>被近战敌人击中时，会以 虔诚伤害 的伤害类型反弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 受到的伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[中程、虔诚、锐器、黑色幽默]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色幽默</t>
+  </si>
+  <si>
+    <t>[3,0.12]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.21]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当角色的最大生命值大于攻击对象时，造成的伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色为仅剩下的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名友军时，该武器的基础攻击力将翻倍。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、法宝、卡斯托尔的星痕]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、法宝、波吕克斯的星烁]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡斯托尔的星痕</t>
+  </si>
+  <si>
+    <t>波吕克斯的星烁</t>
+  </si>
+  <si>
+    <r>
+      <t>每次攻击时，都会给当前生命值最低的友军回复使用者最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的血量。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每次攻击时，都会给当前生命值最高的友军提供使用者最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的物理、魔法、虔诚强度，不可叠加。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、法宝、敛财图腾]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛财图腾</t>
+  </si>
+  <si>
+    <t>[5,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每次命中敌人时会获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1~X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 枚金币。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、钝器、聚财巨鼎]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚财巨鼎</t>
+  </si>
+  <si>
+    <t>[4,0.12]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.18]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每次用该武器击杀1名敌人时会获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1~X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枚金币。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[中程、魔法、法宝、榨血权杖]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>榨血权杖</t>
+  </si>
+  <si>
+    <t>[2,0.25]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.40]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色窃取到生命值时，对场上随机 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 名 敌人造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点魔法伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色窃取到生命值时，对场上随机 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 名 敌人造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点魔法伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色窃取到生命值时，对场上随机 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 名 敌人造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点魔法伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色窃取到生命值时，对场上随机 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 名 敌人造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点魔法伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、魔法、法宝、瘴气凝晶]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘴气凝晶</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">攻击敌人时，不会直接造成伤害，而是给予一个持续 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回合的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害，在持续时间内每回合造成本该造成的伤害，伤害不可叠加。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.50]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[中排、物理、锐器、告死鸟]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>告死鸟</t>
+  </si>
+  <si>
+    <t>[5,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这把武器，会在杀死一名敌人后，会发出哀鸣，对全场敌人造成 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 物理伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、魔法、神器、弥留与终焉]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥留与终焉</t>
+  </si>
+  <si>
+    <r>
+      <t>只能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [消逝弥撒亚] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">装备，在击杀敌人后回复最大生命值的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ，并获得更多金币/装备掉落率 ，清除自身所有负面状态，无法脱下和出售。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>·属性强度加成：物理强度、魔法强度、虔诚强度、防御强度、A血量等，具体武器面板配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、物理、机械、“piupiu与piapia”]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“piupiu与piapia”</t>
+  </si>
+  <si>
+    <t>[6,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>“piupiu”和“piapia”交替使用，“piupiu”会造成伤害，而“piapia”则会为角色叠加护盾。</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2695,7 +3495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2847,6 +3647,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2909,7 +3717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2997,10 +3805,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3009,6 +3820,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0504D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3309,9 +4125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3329,7 +4145,7 @@
     <col min="11" max="11" width="9.625" style="7" customWidth="1"/>
     <col min="12" max="13" width="10" style="7" customWidth="1"/>
     <col min="14" max="14" width="30.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="100.625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="125.625" style="15" customWidth="1"/>
     <col min="16" max="19" width="10.125" style="16" customWidth="1"/>
     <col min="20" max="24" width="9.625" style="7" customWidth="1"/>
     <col min="25" max="16384" width="8.875" style="7"/>
@@ -5093,10 +5909,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -5105,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
@@ -5131,10 +5947,10 @@
         <v>0.2</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" ref="P27:P35" si="8">IF(LEN($F27)&gt;=4,VALUE(MID($F27,4,4)),0)</f>
@@ -5166,10 +5982,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -5178,7 +5994,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
@@ -5204,10 +6020,10 @@
         <v>0.2</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O28" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" si="8"/>
@@ -5239,10 +6055,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="D29" s="7">
         <v>3</v>
@@ -5251,7 +6067,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
@@ -5277,10 +6093,10 @@
         <v>0.2</v>
       </c>
       <c r="N29" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" si="8"/>
@@ -5312,10 +6128,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -5324,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
@@ -5350,10 +6166,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O30" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P30" s="16">
         <f t="shared" si="8"/>
@@ -5385,10 +6201,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="D31" s="7">
         <v>3</v>
@@ -5397,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
@@ -5423,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P31" s="16">
         <f t="shared" si="8"/>
@@ -5458,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="D32" s="7">
         <v>5</v>
@@ -5470,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -5496,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O32" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="8"/>
@@ -5531,10 +6347,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -5543,7 +6359,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -5569,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P33" s="16">
         <f t="shared" si="8"/>
@@ -5601,10 +6417,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
@@ -5613,7 +6429,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
@@ -5639,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P34" s="16">
         <f t="shared" si="8"/>
@@ -5671,10 +6487,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D35" s="7">
         <v>3</v>
@@ -5683,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
@@ -5709,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P35" s="16">
         <f t="shared" si="8"/>
@@ -5741,10 +6557,10 @@
         <v>9</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="D36" s="7">
         <v>5</v>
@@ -5753,7 +6569,7 @@
         <v>25</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -5779,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P36" s="16">
         <f t="shared" ref="P36:P96" si="14">IF(LEN($F36)&gt;=4,VALUE(MID($F36,4,4)),0)</f>
@@ -5811,10 +6627,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -5823,7 +6639,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
@@ -5849,7 +6665,7 @@
         <v>0.1</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P37" s="16">
         <f t="shared" si="14"/>
@@ -5881,10 +6697,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D38" s="24">
         <v>3</v>
@@ -5893,7 +6709,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
@@ -5919,7 +6735,7 @@
         <v>0.1</v>
       </c>
       <c r="O38" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P38" s="16">
         <f t="shared" si="14"/>
@@ -5951,10 +6767,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D39" s="7">
         <v>5</v>
@@ -5963,7 +6779,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -5989,7 +6805,7 @@
         <v>0.1</v>
       </c>
       <c r="O39" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P39" s="16">
         <f t="shared" si="14"/>
@@ -6021,10 +6837,10 @@
         <v>11</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -6033,7 +6849,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
@@ -6059,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P40" s="16">
         <f t="shared" si="14"/>
@@ -6091,10 +6907,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="D41" s="7">
         <v>2</v>
@@ -6103,7 +6919,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
@@ -6129,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P41" s="16">
         <f t="shared" si="14"/>
@@ -6161,10 +6977,10 @@
         <v>11</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -6173,7 +6989,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
@@ -6199,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P42" s="16">
         <f t="shared" si="14"/>
@@ -6231,10 +7047,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="D43" s="7">
         <v>5</v>
@@ -6243,7 +7059,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
@@ -6269,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P43" s="16">
         <f t="shared" si="14"/>
@@ -6301,10 +7117,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -6313,7 +7129,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
@@ -6339,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="16">
@@ -6372,10 +7188,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="D45" s="7">
         <v>3</v>
@@ -6384,7 +7200,7 @@
         <v>45</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -6410,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="16">
@@ -6443,10 +7259,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="D46" s="7">
         <v>5</v>
@@ -6455,7 +7271,7 @@
         <v>60</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
@@ -6481,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="16">
@@ -6514,10 +7330,10 @@
         <v>13</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -6526,7 +7342,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -6582,10 +7398,10 @@
         <v>13</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="7">
         <v>2</v>
@@ -6594,7 +7410,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -6650,10 +7466,10 @@
         <v>13</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
@@ -6662,7 +7478,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -6718,10 +7534,10 @@
         <v>13</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D50" s="7">
         <v>5</v>
@@ -6730,7 +7546,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -6786,10 +7602,10 @@
         <v>14</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -6798,7 +7614,7 @@
         <v>20</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -6854,10 +7670,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D52" s="7">
         <v>3</v>
@@ -6866,7 +7682,7 @@
         <v>30</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -6922,10 +7738,10 @@
         <v>14</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D53" s="7">
         <v>5</v>
@@ -6934,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
@@ -6990,10 +7806,10 @@
         <v>15</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D54" s="24">
         <v>1</v>
@@ -7002,7 +7818,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" s="24">
         <v>0</v>
@@ -7029,7 +7845,7 @@
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P54" s="16">
         <f t="shared" si="14"/>
@@ -7061,10 +7877,10 @@
         <v>15</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D55" s="24">
         <v>2</v>
@@ -7073,7 +7889,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="24">
         <v>0</v>
@@ -7086,7 +7902,7 @@
         <v>25</v>
       </c>
       <c r="J55" s="26">
-        <f t="shared" ref="J55:J82" si="21">($E55+(SUM($P55:$U55)*100))*$H55*(1-L55)</f>
+        <f t="shared" ref="J55:J119" si="21">($E55+(SUM($P55:$U55)*100))*$H55*(1-L55)</f>
         <v>68.75</v>
       </c>
       <c r="K55" s="24">
@@ -7100,7 +7916,7 @@
       </c>
       <c r="N55" s="24"/>
       <c r="O55" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P55" s="16">
         <f t="shared" si="14"/>
@@ -7132,10 +7948,10 @@
         <v>15</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D56" s="24">
         <v>3</v>
@@ -7144,7 +7960,7 @@
         <v>25</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G56" s="24">
         <v>0</v>
@@ -7171,7 +7987,7 @@
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P56" s="16">
         <f t="shared" si="14"/>
@@ -7203,10 +8019,10 @@
         <v>15</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="D57" s="24">
         <v>5</v>
@@ -7215,7 +8031,7 @@
         <v>35</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G57" s="24">
         <v>0</v>
@@ -7242,7 +8058,7 @@
       </c>
       <c r="N57" s="24"/>
       <c r="O57" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P57" s="16">
         <f t="shared" si="14"/>
@@ -7274,10 +8090,10 @@
         <v>16</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D58" s="24">
         <v>1</v>
@@ -7286,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G58" s="24">
         <v>0</v>
@@ -7343,10 +8159,10 @@
         <v>16</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D59" s="24">
         <v>2</v>
@@ -7355,7 +8171,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" s="24">
         <v>0</v>
@@ -7412,10 +8228,10 @@
         <v>16</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D60" s="24">
         <v>3</v>
@@ -7424,7 +8240,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G60" s="24">
         <v>0</v>
@@ -7481,10 +8297,10 @@
         <v>16</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D61" s="24">
         <v>5</v>
@@ -7493,7 +8309,7 @@
         <v>25</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G61" s="24">
         <v>0</v>
@@ -7550,10 +8366,10 @@
         <v>17</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="D62" s="24">
         <v>3</v>
@@ -7562,7 +8378,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="24">
         <v>0</v>
@@ -7589,7 +8405,7 @@
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P62" s="16">
         <f t="shared" si="14"/>
@@ -7621,10 +8437,10 @@
         <v>17</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>194</v>
       </c>
       <c r="D63" s="24">
         <v>5</v>
@@ -7633,7 +8449,7 @@
         <v>30</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="24">
         <v>0</v>
@@ -7660,7 +8476,7 @@
       </c>
       <c r="N63" s="24"/>
       <c r="O63" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P63" s="16">
         <f t="shared" si="14"/>
@@ -7692,10 +8508,10 @@
         <v>18</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="D64" s="24">
         <v>1</v>
@@ -7704,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G64" s="24">
         <v>0</v>
@@ -7731,7 +8547,7 @@
       </c>
       <c r="N64" s="24"/>
       <c r="O64" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P64" s="16">
         <f t="shared" si="14"/>
@@ -7763,10 +8579,10 @@
         <v>18</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="D65" s="24">
         <v>2</v>
@@ -7775,7 +8591,7 @@
         <v>20</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="24">
         <v>0</v>
@@ -7802,7 +8618,7 @@
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P65" s="16">
         <f t="shared" si="14"/>
@@ -7834,10 +8650,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="D66" s="24">
         <v>3</v>
@@ -7846,7 +8662,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G66" s="24">
         <v>0</v>
@@ -7873,7 +8689,7 @@
       </c>
       <c r="N66" s="24"/>
       <c r="O66" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P66" s="16">
         <f t="shared" si="14"/>
@@ -7905,10 +8721,10 @@
         <v>18</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="D67" s="24">
         <v>5</v>
@@ -7917,7 +8733,7 @@
         <v>35</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67" s="24">
         <v>0</v>
@@ -7944,7 +8760,7 @@
       </c>
       <c r="N67" s="24"/>
       <c r="O67" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P67" s="16">
         <f t="shared" si="14"/>
@@ -7976,10 +8792,10 @@
         <v>19</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="D68" s="24">
         <v>1</v>
@@ -7988,7 +8804,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G68" s="24">
         <v>0</v>
@@ -8045,10 +8861,10 @@
         <v>19</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="D69" s="24">
         <v>2</v>
@@ -8057,7 +8873,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G69" s="24">
         <v>0</v>
@@ -8066,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="26">
-        <f t="shared" ref="I69:I82" si="22">$E69*$H69*(1-L69)</f>
+        <f t="shared" ref="I69:I83" si="22">$E69*$H69*(1-L69)</f>
         <v>10</v>
       </c>
       <c r="J69" s="26">
@@ -8114,10 +8930,10 @@
         <v>19</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="D70" s="24">
         <v>3</v>
@@ -8183,10 +8999,10 @@
         <v>20</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="D71" s="7">
         <v>3</v>
@@ -8195,7 +9011,7 @@
         <v>15</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G71" s="7">
         <v>0</v>
@@ -8251,10 +9067,10 @@
         <v>20</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>218</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>219</v>
       </c>
       <c r="D72" s="7">
         <v>5</v>
@@ -8263,7 +9079,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
@@ -8319,10 +9135,10 @@
         <v>21</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
@@ -8331,7 +9147,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -8357,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P73" s="16">
         <f t="shared" si="14"/>
@@ -8389,10 +9205,10 @@
         <v>21</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="D74" s="7">
         <v>3</v>
@@ -8401,7 +9217,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -8427,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P74" s="16">
         <f t="shared" si="14"/>
@@ -8459,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="B75" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="D75" s="7">
         <v>5</v>
@@ -8471,7 +9287,7 @@
         <v>50</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G75" s="7">
         <v>0</v>
@@ -8497,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P75" s="16">
         <f t="shared" si="14"/>
@@ -8529,10 +9345,10 @@
         <v>22</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D76" s="7">
         <v>1</v>
@@ -8541,7 +9357,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
@@ -8567,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P76" s="16">
         <f t="shared" si="14"/>
@@ -8599,10 +9415,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -8611,7 +9427,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G77" s="7">
         <v>0</v>
@@ -8637,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P77" s="16">
         <f t="shared" si="14"/>
@@ -8669,10 +9485,10 @@
         <v>22</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D78" s="7">
         <v>3</v>
@@ -8681,7 +9497,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
@@ -8707,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P78" s="16">
         <f t="shared" si="14"/>
@@ -8739,10 +9555,10 @@
         <v>22</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D79" s="7">
         <v>5</v>
@@ -8751,7 +9567,7 @@
         <v>37</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
@@ -8777,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P79" s="16">
         <f t="shared" si="14"/>
@@ -8809,10 +9625,10 @@
         <v>23</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
@@ -8821,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
@@ -8847,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P80" s="16">
         <f t="shared" si="14"/>
@@ -8879,10 +9695,10 @@
         <v>23</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D81" s="7">
         <v>3</v>
@@ -8891,7 +9707,7 @@
         <v>15</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
@@ -8917,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P81" s="16">
         <f t="shared" si="14"/>
@@ -8949,10 +9765,10 @@
         <v>23</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D82" s="7">
         <v>5</v>
@@ -8961,7 +9777,7 @@
         <v>30</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
@@ -8987,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P82" s="16">
         <f t="shared" si="14"/>
@@ -9015,9 +9831,53 @@
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>24</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
+        <v>10</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I83" s="26">
+        <f t="shared" si="22"/>
+        <v>12.5</v>
+      </c>
+      <c r="J83" s="26">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K83" s="7">
+        <v>6</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="25" t="s">
+        <v>244</v>
+      </c>
       <c r="P83" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q83" s="16">
         <f t="shared" si="15"/>
@@ -9041,9 +9901,53 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>24</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="7">
+        <v>2</v>
+      </c>
+      <c r="E84" s="7">
+        <v>15</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I84" s="26">
+        <f t="shared" ref="I84:I102" si="23">$E84*$H84*(1-L84)</f>
+        <v>18.75</v>
+      </c>
+      <c r="J84" s="26">
+        <f t="shared" si="21"/>
+        <v>37.5</v>
+      </c>
+      <c r="K84" s="7">
+        <v>6</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="25" t="s">
+        <v>244</v>
+      </c>
       <c r="P84" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q84" s="16">
         <f t="shared" si="15"/>
@@ -9067,9 +9971,53 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>24</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="7">
+        <v>3</v>
+      </c>
+      <c r="E85" s="7">
+        <v>20</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I85" s="26">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="J85" s="26">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="K85" s="7">
+        <v>6</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="25" t="s">
+        <v>244</v>
+      </c>
       <c r="P85" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q85" s="16">
         <f t="shared" si="15"/>
@@ -9093,9 +10041,53 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
+        <v>24</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="7">
+        <v>5</v>
+      </c>
+      <c r="E86" s="7">
+        <v>30</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I86" s="26">
+        <f t="shared" si="23"/>
+        <v>37.5</v>
+      </c>
+      <c r="J86" s="26">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="K86" s="7">
+        <v>6</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="25" t="s">
+        <v>244</v>
+      </c>
       <c r="P86" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q86" s="16">
         <f t="shared" si="15"/>
@@ -9119,9 +10111,53 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>25</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="7">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7">
+        <v>20</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="26">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="J87" s="26">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="K87" s="7">
+        <v>7</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="25" t="s">
+        <v>247</v>
+      </c>
       <c r="P87" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q87" s="16">
         <f t="shared" si="15"/>
@@ -9145,9 +10181,53 @@
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
+        <v>25</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="7">
+        <v>5</v>
+      </c>
+      <c r="E88" s="7">
+        <v>40</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>1</v>
+      </c>
+      <c r="I88" s="26">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="J88" s="26">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="K88" s="7">
+        <v>7</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="25" t="s">
+        <v>247</v>
+      </c>
       <c r="P88" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q88" s="16">
         <f t="shared" si="15"/>
@@ -9171,9 +10251,53 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>26</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <v>10</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I89" s="26">
+        <f t="shared" si="23"/>
+        <v>14.25</v>
+      </c>
+      <c r="J89" s="26">
+        <f t="shared" si="21"/>
+        <v>28.5</v>
+      </c>
+      <c r="K89" s="7">
+        <v>6</v>
+      </c>
+      <c r="L89" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="P89" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q89" s="16">
         <f t="shared" si="15"/>
@@ -9197,9 +10321,53 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
+        <v>26</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="7">
+        <v>3</v>
+      </c>
+      <c r="E90" s="7">
+        <v>17</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I90" s="26">
+        <f t="shared" si="23"/>
+        <v>24.224999999999998</v>
+      </c>
+      <c r="J90" s="26">
+        <f t="shared" si="21"/>
+        <v>52.724999999999994</v>
+      </c>
+      <c r="K90" s="7">
+        <v>6</v>
+      </c>
+      <c r="L90" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="P90" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q90" s="16">
         <f t="shared" si="15"/>
@@ -9223,9 +10391,53 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>26</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="7">
+        <v>5</v>
+      </c>
+      <c r="E91" s="7">
+        <v>29</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I91" s="26">
+        <f t="shared" si="23"/>
+        <v>41.324999999999996</v>
+      </c>
+      <c r="J91" s="26">
+        <f t="shared" si="21"/>
+        <v>84.075000000000003</v>
+      </c>
+      <c r="K91" s="7">
+        <v>6</v>
+      </c>
+      <c r="L91" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0</v>
+      </c>
+      <c r="O91" s="25" t="s">
+        <v>253</v>
+      </c>
       <c r="P91" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q91" s="16">
         <f t="shared" si="15"/>
@@ -9249,9 +10461,53 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
+        <v>27</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <v>15</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="26">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="J92" s="26">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="K92" s="7">
+        <v>2</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="25" t="s">
+        <v>271</v>
+      </c>
       <c r="P92" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q92" s="16">
         <f t="shared" si="15"/>
@@ -9275,9 +10531,53 @@
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>27</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="7">
+        <v>2</v>
+      </c>
+      <c r="E93" s="7">
+        <v>21</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="26">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="J93" s="26">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="K93" s="7">
+        <v>2</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0</v>
+      </c>
+      <c r="O93" s="25" t="s">
+        <v>271</v>
+      </c>
       <c r="P93" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q93" s="16">
         <f t="shared" si="15"/>
@@ -9301,9 +10601,53 @@
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
+        <v>27</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="7">
+        <v>3</v>
+      </c>
+      <c r="E94" s="7">
+        <v>28</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>1</v>
+      </c>
+      <c r="I94" s="26">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="J94" s="26">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="K94" s="7">
+        <v>2</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="25" t="s">
+        <v>271</v>
+      </c>
       <c r="P94" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q94" s="16">
         <f t="shared" si="15"/>
@@ -9327,9 +10671,53 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>27</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="7">
+        <v>5</v>
+      </c>
+      <c r="E95" s="7">
+        <v>40</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>1</v>
+      </c>
+      <c r="I95" s="26">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="J95" s="26">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="K95" s="7">
+        <v>2</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="25" t="s">
+        <v>271</v>
+      </c>
       <c r="P95" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q95" s="16">
         <f t="shared" si="15"/>
@@ -9353,9 +10741,53 @@
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
+        <v>28</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
+        <v>13</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>1</v>
+      </c>
+      <c r="I96" s="26">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="J96" s="26">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="K96" s="7">
+        <v>1</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="25" t="s">
+        <v>264</v>
+      </c>
       <c r="P96" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q96" s="16">
         <f t="shared" si="15"/>
@@ -9378,1043 +10810,2451 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>28</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="7">
+        <v>3</v>
+      </c>
+      <c r="E97" s="7">
+        <v>23</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>1</v>
+      </c>
+      <c r="I97" s="26">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="J97" s="26">
+        <f t="shared" si="21"/>
+        <v>41</v>
+      </c>
+      <c r="K97" s="7">
+        <v>1</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="O97" s="25" t="s">
+        <v>264</v>
+      </c>
       <c r="P97" s="16">
-        <f t="shared" ref="P97:P136" si="23">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
-        <v>0</v>
+        <f t="shared" ref="P97:P136" si="24">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
+        <v>0.18</v>
       </c>
       <c r="Q97" s="16">
-        <f t="shared" ref="Q97:Q136" si="24">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
+        <f t="shared" ref="Q97:Q136" si="25">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
         <v>0</v>
       </c>
       <c r="R97" s="16">
-        <f t="shared" ref="R97:R136" si="25">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
+        <f t="shared" ref="R97:R136" si="26">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
         <v>0</v>
       </c>
       <c r="S97" s="16">
-        <f t="shared" ref="S97:S136" si="26">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
+        <f t="shared" ref="S97:S136" si="27">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="16">
-        <f t="shared" ref="T97:T136" si="27">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
+        <f t="shared" ref="T97:T136" si="28">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
         <v>0</v>
       </c>
       <c r="U97" s="16">
-        <f t="shared" ref="U97:U136" si="28">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="16:21" x14ac:dyDescent="0.15">
+        <f t="shared" ref="U97:U136" si="29">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
+        <v>28</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5</v>
+      </c>
+      <c r="E98" s="7">
+        <v>42</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>1</v>
+      </c>
+      <c r="I98" s="26">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+      <c r="J98" s="26">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="K98" s="7">
+        <v>1</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="25" t="s">
+        <v>264</v>
+      </c>
       <c r="P98" s="16">
+        <f t="shared" si="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q98" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
+        <v>29</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1</v>
+      </c>
+      <c r="E99" s="7">
+        <v>12</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I99" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q98" s="16">
+        <v>14.549999999999999</v>
+      </c>
+      <c r="J99" s="26">
+        <f t="shared" si="21"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="K99" s="7">
+        <v>2</v>
+      </c>
+      <c r="L99" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P99" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="Q99" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S98" s="16">
+      <c r="R99" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T98" s="16">
+      <c r="S99" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U98" s="16">
+      <c r="T99" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P99" s="16">
+      <c r="U99" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
+        <v>29</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="7">
+        <v>2</v>
+      </c>
+      <c r="E100" s="7">
+        <v>18</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I100" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="16">
+        <v>21.824999999999999</v>
+      </c>
+      <c r="J100" s="26">
+        <f t="shared" si="21"/>
+        <v>40.012499999999996</v>
+      </c>
+      <c r="K100" s="7">
+        <v>2</v>
+      </c>
+      <c r="L100" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P100" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R99" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="Q100" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S99" s="16">
+      <c r="R100" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T99" s="16">
+      <c r="S100" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U99" s="16">
+      <c r="T100" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P100" s="16">
+      <c r="U100" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>29</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="7">
+        <v>3</v>
+      </c>
+      <c r="E101" s="7">
+        <v>25</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I101" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="16">
+        <v>30.3125</v>
+      </c>
+      <c r="J101" s="26">
+        <f t="shared" si="21"/>
+        <v>55.774999999999999</v>
+      </c>
+      <c r="K101" s="7">
+        <v>2</v>
+      </c>
+      <c r="L101" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M101" s="7">
+        <v>0</v>
+      </c>
+      <c r="O101" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P101" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="Q101" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S100" s="16">
+      <c r="R101" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T100" s="16">
+      <c r="S101" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U100" s="16">
+      <c r="T101" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P101" s="16">
+      <c r="U101" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
+        <v>29</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5</v>
+      </c>
+      <c r="E102" s="7">
+        <v>35</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I102" s="26">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q101" s="16">
+        <v>42.4375</v>
+      </c>
+      <c r="J102" s="26">
+        <f t="shared" si="21"/>
+        <v>84.875</v>
+      </c>
+      <c r="K102" s="7">
+        <v>2</v>
+      </c>
+      <c r="L102" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P102" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R101" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="Q102" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S101" s="16">
+      <c r="R102" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T101" s="16">
+      <c r="S102" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U101" s="16">
+      <c r="T102" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P102" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="16">
+      <c r="U102" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>30</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7">
+        <v>10</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I103" s="26">
+        <f t="shared" ref="I103:I128" si="30">$E103*$H103*(1-L103)</f>
+        <v>15</v>
+      </c>
+      <c r="J103" s="26">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="K103" s="7">
+        <v>8</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
+        <v>0</v>
+      </c>
+      <c r="O103" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="P103" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q103" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S102" s="16">
+      <c r="R103" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T102" s="16">
+      <c r="S103" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U102" s="16">
+      <c r="T103" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P103" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q103" s="16">
+      <c r="U103" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>30</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="7">
+        <v>3</v>
+      </c>
+      <c r="E104" s="7">
+        <v>15</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I104" s="26">
+        <f t="shared" si="30"/>
+        <v>22.5</v>
+      </c>
+      <c r="J104" s="26">
+        <f t="shared" si="21"/>
+        <v>52.5</v>
+      </c>
+      <c r="K104" s="7">
+        <v>8</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0</v>
+      </c>
+      <c r="M104" s="7">
+        <v>0</v>
+      </c>
+      <c r="O104" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="P104" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q104" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S103" s="16">
+      <c r="R104" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T103" s="16">
+      <c r="S104" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U103" s="16">
+      <c r="T104" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P104" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q104" s="16">
+      <c r="U104" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
+        <v>30</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5</v>
+      </c>
+      <c r="E105" s="7">
+        <v>20</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I105" s="26">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="J105" s="26">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="K105" s="7">
+        <v>8</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7">
+        <v>0</v>
+      </c>
+      <c r="O105" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="P105" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R104" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q105" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S104" s="16">
+      <c r="R105" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T104" s="16">
+      <c r="S105" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U104" s="16">
+      <c r="T105" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P105" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q105" s="16">
+      <c r="U105" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
+        <v>30</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1</v>
+      </c>
+      <c r="E106" s="7">
+        <v>10</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I106" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J106" s="26">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="K106" s="7">
+        <v>2</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0</v>
+      </c>
+      <c r="M106" s="7">
+        <v>0</v>
+      </c>
+      <c r="O106" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P106" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R105" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q106" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S105" s="16">
+      <c r="R106" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T105" s="16">
+      <c r="S106" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U105" s="16">
+      <c r="T106" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P106" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q106" s="16">
+      <c r="U106" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>30</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" s="7">
+        <v>3</v>
+      </c>
+      <c r="E107" s="7">
+        <v>15</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I107" s="26">
+        <f t="shared" si="30"/>
+        <v>22.5</v>
+      </c>
+      <c r="J107" s="26">
+        <f t="shared" si="21"/>
+        <v>52.5</v>
+      </c>
+      <c r="K107" s="7">
+        <v>2</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P107" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R106" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q107" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S106" s="16">
+      <c r="R107" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T106" s="16">
+      <c r="S107" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U106" s="16">
+      <c r="T107" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P107" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q107" s="16">
+      <c r="U107" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
+        <v>30</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108" s="7">
+        <v>5</v>
+      </c>
+      <c r="E108" s="7">
+        <v>20</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I108" s="26">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="J108" s="26">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="K108" s="7">
+        <v>2</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0</v>
+      </c>
+      <c r="M108" s="7">
+        <v>0</v>
+      </c>
+      <c r="O108" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P108" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R107" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q108" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S107" s="16">
+      <c r="R108" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T107" s="16">
+      <c r="S108" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U107" s="16">
+      <c r="T108" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P108" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q108" s="16">
+      <c r="U108" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>31</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7">
+        <v>12</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I109" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J109" s="26">
+        <f t="shared" si="21"/>
+        <v>27.5</v>
+      </c>
+      <c r="K109" s="7">
+        <v>1</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0</v>
+      </c>
+      <c r="M109" s="7">
+        <v>0</v>
+      </c>
+      <c r="O109" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P109" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R108" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q109" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S108" s="16">
+      <c r="R109" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T108" s="16">
+      <c r="S109" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U108" s="16">
+      <c r="T109" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P109" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q109" s="16">
+      <c r="U109" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
+        <v>31</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D110" s="7">
+        <v>3</v>
+      </c>
+      <c r="E110" s="7">
+        <v>24</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I110" s="26">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="J110" s="26">
+        <f t="shared" si="21"/>
+        <v>48.75</v>
+      </c>
+      <c r="K110" s="7">
+        <v>1</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P110" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R109" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="Q110" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S109" s="16">
+      <c r="R110" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T109" s="16">
+      <c r="S110" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U109" s="16">
+      <c r="T110" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P110" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q110" s="16">
+      <c r="U110" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
+        <v>31</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="7">
+        <v>5</v>
+      </c>
+      <c r="E111" s="7">
+        <v>36</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0</v>
+      </c>
+      <c r="H111" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I111" s="26">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="J111" s="26">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="K111" s="7">
+        <v>1</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0</v>
+      </c>
+      <c r="O111" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="P111" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R110" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q111" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S110" s="16">
+      <c r="R111" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T110" s="16">
+      <c r="S111" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U110" s="16">
+      <c r="T111" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P111" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q111" s="16">
+      <c r="U111" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
+        <v>32</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112" s="7">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7">
+        <v>15</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>1</v>
+      </c>
+      <c r="I112" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J112" s="26">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="K112" s="7">
+        <v>1</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0</v>
+      </c>
+      <c r="M112" s="7">
+        <v>0</v>
+      </c>
+      <c r="O112" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="P112" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R111" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="Q112" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S111" s="16">
+      <c r="R112" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T111" s="16">
+      <c r="S112" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U111" s="16">
+      <c r="T112" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P112" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q112" s="16">
+      <c r="U112" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
+        <v>32</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D113" s="7">
+        <v>3</v>
+      </c>
+      <c r="E113" s="7">
+        <v>30</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>1</v>
+      </c>
+      <c r="I113" s="26">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="J113" s="26">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="K113" s="7">
+        <v>1</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0</v>
+      </c>
+      <c r="M113" s="7">
+        <v>0</v>
+      </c>
+      <c r="O113" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="P113" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R112" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="Q113" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S112" s="16">
+      <c r="R113" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T112" s="16">
+      <c r="S113" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U112" s="16">
+      <c r="T113" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P113" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q113" s="16">
+      <c r="U113" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
+        <v>32</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D114" s="7">
+        <v>5</v>
+      </c>
+      <c r="E114" s="7">
+        <v>50</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>1</v>
+      </c>
+      <c r="I114" s="26">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="J114" s="26">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="K114" s="7">
+        <v>1</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0</v>
+      </c>
+      <c r="O114" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="P114" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R113" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q114" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S113" s="16">
+      <c r="R114" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T113" s="16">
+      <c r="S114" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U113" s="16">
+      <c r="T114" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P114" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q114" s="16">
+      <c r="U114" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>33</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7">
+        <v>5</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I115" s="26">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="J115" s="26">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="K115" s="7">
+        <v>6</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0</v>
+      </c>
+      <c r="M115" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O115" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="P115" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R114" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="Q115" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S114" s="16">
+      <c r="R115" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T114" s="16">
+      <c r="S115" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U114" s="16">
+      <c r="T115" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P115" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q115" s="16">
+      <c r="U115" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A116" s="7">
+        <v>33</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D116" s="7">
+        <v>2</v>
+      </c>
+      <c r="E116" s="7">
+        <v>10</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I116" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J116" s="26">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="K116" s="7">
+        <v>6</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0</v>
+      </c>
+      <c r="M116" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O116" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="P116" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R115" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q116" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S115" s="16">
+      <c r="R116" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T115" s="16">
+      <c r="S116" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U115" s="16">
+      <c r="T116" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P116" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q116" s="16">
+      <c r="U116" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
+        <v>33</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="7">
+        <v>3</v>
+      </c>
+      <c r="E117" s="7">
+        <v>15</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I117" s="26">
+        <f t="shared" si="30"/>
+        <v>22.5</v>
+      </c>
+      <c r="J117" s="26">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="K117" s="7">
+        <v>6</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0</v>
+      </c>
+      <c r="M117" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O117" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="P117" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R116" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="Q117" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S116" s="16">
+      <c r="R117" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T116" s="16">
+      <c r="S117" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U116" s="16">
+      <c r="T117" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P117" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q117" s="16">
+      <c r="U117" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
+        <v>33</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D118" s="7">
+        <v>5</v>
+      </c>
+      <c r="E118" s="7">
+        <v>30</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I118" s="26">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="J118" s="26">
+        <f t="shared" si="21"/>
+        <v>105</v>
+      </c>
+      <c r="K118" s="7">
+        <v>6</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0</v>
+      </c>
+      <c r="M118" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O118" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="P118" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R117" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="Q118" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S117" s="16">
+      <c r="R118" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T117" s="16">
+      <c r="S118" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U117" s="16">
+      <c r="T118" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P118" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q118" s="16">
+      <c r="U118" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
+        <v>34</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="7">
+        <v>40</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I119" s="26">
+        <f t="shared" si="30"/>
+        <v>60</v>
+      </c>
+      <c r="J119" s="26">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="K119" s="7">
+        <v>2</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0</v>
+      </c>
+      <c r="M119" s="7">
+        <v>0</v>
+      </c>
+      <c r="O119" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="P119" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R118" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q119" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S118" s="16">
+      <c r="R119" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T118" s="16">
+      <c r="S119" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U118" s="16">
+      <c r="T119" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P119" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q119" s="16">
+      <c r="U119" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
+        <v>34</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="7">
+        <v>2</v>
+      </c>
+      <c r="E120" s="7">
+        <v>80</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G120" s="7">
+        <v>0</v>
+      </c>
+      <c r="H120" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I120" s="26">
+        <f t="shared" si="30"/>
+        <v>120</v>
+      </c>
+      <c r="J120" s="26">
+        <f t="shared" ref="J120:J128" si="31">($E120+(SUM($P120:$U120)*100))*$H120*(1-L120)</f>
+        <v>150</v>
+      </c>
+      <c r="K120" s="7">
+        <v>2</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0</v>
+      </c>
+      <c r="M120" s="7">
+        <v>0</v>
+      </c>
+      <c r="O120" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="P120" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R119" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q120" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S119" s="16">
+      <c r="R120" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T119" s="16">
+      <c r="S120" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U119" s="16">
+      <c r="T120" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P120" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q120" s="16">
+      <c r="U120" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>34</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="7">
+        <v>5</v>
+      </c>
+      <c r="E121" s="7">
+        <v>160</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G121" s="7">
+        <v>0</v>
+      </c>
+      <c r="H121" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I121" s="26">
+        <f t="shared" si="30"/>
+        <v>240</v>
+      </c>
+      <c r="J121" s="26">
+        <f t="shared" si="31"/>
+        <v>315</v>
+      </c>
+      <c r="K121" s="7">
+        <v>2</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7">
+        <v>0</v>
+      </c>
+      <c r="O121" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="P121" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R120" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="Q121" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S120" s="16">
+      <c r="R121" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T120" s="16">
+      <c r="S121" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U120" s="16">
+      <c r="T121" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P121" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q121" s="16">
+      <c r="U121" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A122" s="7">
+        <v>35</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1</v>
+      </c>
+      <c r="E122" s="7">
+        <v>15</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G122" s="7">
+        <v>0</v>
+      </c>
+      <c r="H122" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I122" s="26">
+        <f t="shared" si="30"/>
+        <v>22.5</v>
+      </c>
+      <c r="J122" s="26">
+        <f t="shared" si="31"/>
+        <v>37.5</v>
+      </c>
+      <c r="K122" s="7">
+        <v>2</v>
+      </c>
+      <c r="L122" s="7">
+        <v>0</v>
+      </c>
+      <c r="M122" s="7">
+        <v>0</v>
+      </c>
+      <c r="O122" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="P122" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R121" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q122" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S121" s="16">
+      <c r="R122" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T121" s="16">
+      <c r="S122" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U121" s="16">
+      <c r="T122" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P122" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q122" s="16">
+      <c r="U122" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
+        <v>35</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="7">
+        <v>3</v>
+      </c>
+      <c r="E123" s="7">
+        <v>25</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G123" s="7">
+        <v>0</v>
+      </c>
+      <c r="H123" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I123" s="26">
+        <f t="shared" si="30"/>
+        <v>37.5</v>
+      </c>
+      <c r="J123" s="26">
+        <f t="shared" si="31"/>
+        <v>67.5</v>
+      </c>
+      <c r="K123" s="7">
+        <v>2</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0</v>
+      </c>
+      <c r="M123" s="7">
+        <v>0</v>
+      </c>
+      <c r="O123" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="P123" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q123" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S122" s="16">
+      <c r="R123" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T122" s="16">
+      <c r="S123" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U122" s="16">
+      <c r="T123" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P123" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q123" s="16">
+      <c r="U123" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A124" s="7">
+        <v>35</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D124" s="7">
+        <v>5</v>
+      </c>
+      <c r="E124" s="7">
+        <v>35</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G124" s="7">
+        <v>0</v>
+      </c>
+      <c r="H124" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I124" s="26">
+        <f t="shared" si="30"/>
+        <v>52.5</v>
+      </c>
+      <c r="J124" s="26">
+        <f t="shared" si="31"/>
+        <v>97.5</v>
+      </c>
+      <c r="K124" s="7">
+        <v>2</v>
+      </c>
+      <c r="L124" s="7">
+        <v>0</v>
+      </c>
+      <c r="M124" s="7">
+        <v>0</v>
+      </c>
+      <c r="O124" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="P124" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R123" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Q124" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S123" s="16">
+      <c r="R124" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T123" s="16">
+      <c r="S124" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U123" s="16">
+      <c r="T124" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P124" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q124" s="16">
+      <c r="U124" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
+        <v>36</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" s="7">
+        <v>5</v>
+      </c>
+      <c r="E125" s="7">
+        <v>150</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0</v>
+      </c>
+      <c r="G125" s="7">
+        <v>0</v>
+      </c>
+      <c r="H125" s="7">
+        <v>1</v>
+      </c>
+      <c r="I125" s="26">
+        <f t="shared" si="30"/>
+        <v>150</v>
+      </c>
+      <c r="J125" s="26">
+        <f>($E125+(SUM($P125:$U125)*100))*$H125*(1-L125)</f>
+        <v>150</v>
+      </c>
+      <c r="K125" s="7">
+        <v>2</v>
+      </c>
+      <c r="L125" s="10">
+        <v>0</v>
+      </c>
+      <c r="M125" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="O125" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P125" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R124" s="16">
+      <c r="Q125" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S124" s="16">
+      <c r="R125" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T124" s="16">
+      <c r="S125" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U124" s="16">
+      <c r="T125" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P125" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="16">
+      <c r="U125" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A126" s="7">
+        <v>37</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>10</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G126" s="7">
+        <v>0</v>
+      </c>
+      <c r="H126" s="7">
+        <v>2</v>
+      </c>
+      <c r="I126" s="26">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="J126" s="26">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="K126" s="7">
+        <v>4</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0</v>
+      </c>
+      <c r="M126" s="7">
+        <v>0</v>
+      </c>
+      <c r="O126" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="P126" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q126" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S125" s="16">
+      <c r="R126" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T125" s="16">
+      <c r="S126" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U125" s="16">
+      <c r="T126" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P126" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q126" s="16">
+      <c r="U126" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
+        <v>37</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" s="7">
+        <v>3</v>
+      </c>
+      <c r="E127" s="7">
+        <v>12</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G127" s="7">
+        <v>0</v>
+      </c>
+      <c r="H127" s="7">
+        <v>2</v>
+      </c>
+      <c r="I127" s="26">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="J127" s="26">
+        <f t="shared" si="31"/>
+        <v>54</v>
+      </c>
+      <c r="K127" s="7">
+        <v>4</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0</v>
+      </c>
+      <c r="M127" s="7">
+        <v>0</v>
+      </c>
+      <c r="O127" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="P127" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="Q127" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S126" s="16">
+      <c r="R127" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T126" s="16">
+      <c r="S127" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U126" s="16">
+      <c r="T127" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P127" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="16">
+      <c r="U127" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A128" s="7">
+        <v>37</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D128" s="7">
+        <v>5</v>
+      </c>
+      <c r="E128" s="7">
+        <v>15</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G128" s="7">
+        <v>0</v>
+      </c>
+      <c r="H128" s="7">
+        <v>2</v>
+      </c>
+      <c r="I128" s="26">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="J128" s="26">
+        <f t="shared" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="K128" s="7">
+        <v>4</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0</v>
+      </c>
+      <c r="M128" s="7">
+        <v>0</v>
+      </c>
+      <c r="O128" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="P128" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="Q128" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S127" s="16">
+      <c r="R128" s="16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T127" s="16">
+      <c r="S128" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="U127" s="16">
+      <c r="T128" s="16">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="16:21" x14ac:dyDescent="0.15">
-      <c r="P128" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q128" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S128" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="T128" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
       <c r="U128" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P129" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q129" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R129" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S129" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T129" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U129" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P130" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q130" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R130" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S130" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T130" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U130" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P131" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q131" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R131" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S131" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T131" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U131" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P132" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q132" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R132" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S132" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T132" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U132" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P133" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q133" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R133" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S133" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T133" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U133" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P134" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q134" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R134" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S134" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T134" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U134" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P135" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q135" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R135" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S135" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T135" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U135" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="16:21" x14ac:dyDescent="0.15">
       <c r="P136" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q136" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R136" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S136" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T136" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U136" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -10767,10 +13607,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>176</v>
       </c>
       <c r="D11" s="7">
         <v>5</v>
@@ -10793,7 +13633,7 @@
         <v>0.65517241379310343</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -10801,10 +13641,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="24">
         <v>3</v>
@@ -10826,7 +13666,7 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -10834,10 +13674,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="24">
         <v>5</v>
@@ -10859,7 +13699,7 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -11148,19 +13988,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="24" t="s">
         <v>213</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -11168,19 +14008,19 @@
         <v>4</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>212</v>
       </c>
       <c r="D16" s="24">
         <v>2</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -11188,19 +14028,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>212</v>
       </c>
       <c r="D17" s="24">
         <v>3</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -11208,19 +14048,19 @@
         <v>4</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>212</v>
       </c>
       <c r="D18" s="24">
         <v>5</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -11234,7 +14074,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D26:D27"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11263,33 +14103,33 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
-        <v>115</v>
+      <c r="D9" s="31" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -11313,17 +14153,17 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2">
         <v>50</v>
@@ -11334,7 +14174,7 @@
         <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">

--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5940EA-BA70-44DA-9BFC-209377FFB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D295CB-D470-41B9-B91C-A422A60C820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="348">
   <si>
     <t>ID</t>
   </si>
@@ -2662,10 +2662,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[远程、魔法、法宝、阿塔拉蝴蝶]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>阿塔拉蝴蝶</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2972,22 +2968,39 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[远程、魔法、法宝、卡斯托尔的星痕]</t>
+    <t>卡斯托尔的星痕</t>
+  </si>
+  <si>
+    <t>波吕克斯的星烁</t>
+  </si>
+  <si>
+    <r>
+      <t>每次攻击时，都会给当前生命值最低的友军回复使用者最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的血量。</t>
+    </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[近战、物理、法宝、波吕克斯的星烁]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡斯托尔的星痕</t>
-  </si>
-  <si>
-    <t>波吕克斯的星烁</t>
-  </si>
-  <si>
-    <r>
-      <t>每次攻击时，都会给当前生命值最低的友军回复使用者最大生命值</t>
+    <r>
+      <t>每次攻击时，都会给当前生命值最高的友军提供使用者最大生命值</t>
     </r>
     <r>
       <rPr>
@@ -3006,37 +3019,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>的血量。</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每次攻击时，都会给当前生命值最高的友军提供使用者最大生命值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC0504D"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>的物理、魔法、虔诚强度，不可叠加。</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>[近战、物理、法宝、敛财图腾]</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -3120,10 +3104,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[中程、魔法、法宝、榨血权杖]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>榨血权杖</t>
   </si>
   <si>
@@ -3319,10 +3299,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>[近战、魔法、法宝、瘴气凝晶]</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>瘴气凝晶</t>
   </si>
   <si>
@@ -3487,7 +3463,445 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>“piupiu”和“piapia”交替使用，“piupiu”会造成伤害，而“piapia”则会为角色叠加护盾。</t>
+    <t>[近战、物理、钝器、重塑之铸]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>重塑之铸</t>
+  </si>
+  <si>
+    <t>[4,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">出现多把该武器时，可将 3把 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 品质 的该武器合称为 1把 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">品质的武器。 </t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">出现多把该武器时，可将 3把 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 品质 的该武器合成为 1把 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">品质的该武器。 </t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、魔法、锐器、刺痛拥抱]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺痛拥抱</t>
+  </si>
+  <si>
+    <t>[2,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“piupiu”和“piapia”交替使用，“piupiu”会造成伤害，而“piapia”则会为角色叠加 武器攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 的护盾。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色同时装备了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[荆棘女王的宠幸]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（饰品）时， 当攻击命中时，会附加敌人最大生命值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 的虔诚伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色同时装备了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[荆棘女王的宠幸]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（饰品）时， 当攻击命中时，会附加敌人最大生命值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的虔诚伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色同时装备了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[荆棘女王的宠幸]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（饰品）时， 当攻击命中时，会附加敌人最大生命值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的虔诚伤害。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[近战、物理、锐器、砂龙臂刃]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂龙臂刃</t>
+  </si>
+  <si>
+    <t>[1,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.15]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.20]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,0.30]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当角色装备了这把武器后，角色受到治疗时恢复生命值减半，但是角色的生命回复速度增加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、法杖、孽火]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>孽火</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">随着回合的进行，火焰会逐渐燃烧地更加猛烈，每回合都会获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 法术强度加成。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[远程、魔法、宝物、阿塔拉蝴蝶]</t>
+  </si>
+  <si>
+    <t>[远程、魔法、宝物、卡斯托尔的星痕]</t>
+  </si>
+  <si>
+    <t>[近战、物理、宝物、波吕克斯的星烁]</t>
+  </si>
+  <si>
+    <t>[近战、物理、宝物、敛财图腾]</t>
+  </si>
+  <si>
+    <t>[中程、魔法、宝物、榨血权杖]</t>
+  </si>
+  <si>
+    <t>[近战、魔法、宝物、瘴气凝晶]</t>
+  </si>
+  <si>
+    <t>[中程、魔法、宝物、解离时光]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>解离时光</t>
+  </si>
+  <si>
+    <t>[2,0.10]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,0.35]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每次命中时，会消除敌人身上的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 个持续时间最长的正面状态。</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[中程、虔诚、宝物、</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4123,11 +4537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U136"/>
+  <dimension ref="A1:U362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9663,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P80" s="16">
         <f t="shared" si="14"/>
@@ -9733,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P81" s="16">
         <f t="shared" si="14"/>
@@ -9803,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P82" s="16">
         <f t="shared" si="14"/>
@@ -9835,10 +10249,10 @@
         <v>24</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="D83" s="7">
         <v>1</v>
@@ -9847,7 +10261,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
@@ -9873,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P83" s="16">
         <f t="shared" si="14"/>
@@ -9905,10 +10319,10 @@
         <v>24</v>
       </c>
       <c r="B84" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="D84" s="7">
         <v>2</v>
@@ -9917,7 +10331,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
@@ -9943,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P84" s="16">
         <f t="shared" si="14"/>
@@ -9975,10 +10389,10 @@
         <v>24</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="D85" s="7">
         <v>3</v>
@@ -9987,7 +10401,7 @@
         <v>20</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" s="7">
         <v>0</v>
@@ -10013,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P85" s="16">
         <f t="shared" si="14"/>
@@ -10045,10 +10459,10 @@
         <v>24</v>
       </c>
       <c r="B86" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="D86" s="7">
         <v>5</v>
@@ -10057,7 +10471,7 @@
         <v>30</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G86" s="7">
         <v>0</v>
@@ -10083,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P86" s="16">
         <f t="shared" si="14"/>
@@ -10115,10 +10529,10 @@
         <v>25</v>
       </c>
       <c r="B87" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="D87" s="7">
         <v>3</v>
@@ -10127,7 +10541,7 @@
         <v>20</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G87" s="7">
         <v>0</v>
@@ -10153,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P87" s="16">
         <f t="shared" si="14"/>
@@ -10185,10 +10599,10 @@
         <v>25</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="D88" s="7">
         <v>5</v>
@@ -10197,7 +10611,7 @@
         <v>40</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
@@ -10223,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P88" s="16">
         <f t="shared" si="14"/>
@@ -10255,10 +10669,10 @@
         <v>26</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
@@ -10267,7 +10681,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
@@ -10293,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P89" s="16">
         <f t="shared" si="14"/>
@@ -10325,10 +10739,10 @@
         <v>26</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="D90" s="7">
         <v>3</v>
@@ -10337,7 +10751,7 @@
         <v>17</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G90" s="7">
         <v>0</v>
@@ -10363,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P90" s="16">
         <f t="shared" si="14"/>
@@ -10395,10 +10809,10 @@
         <v>26</v>
       </c>
       <c r="B91" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="D91" s="7">
         <v>5</v>
@@ -10407,7 +10821,7 @@
         <v>29</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G91" s="7">
         <v>0</v>
@@ -10433,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P91" s="16">
         <f t="shared" si="14"/>
@@ -10465,10 +10879,10 @@
         <v>27</v>
       </c>
       <c r="B92" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
@@ -10477,7 +10891,7 @@
         <v>15</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G92" s="7">
         <v>0</v>
@@ -10503,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P92" s="16">
         <f t="shared" si="14"/>
@@ -10535,10 +10949,10 @@
         <v>27</v>
       </c>
       <c r="B93" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D93" s="7">
         <v>2</v>
@@ -10547,7 +10961,7 @@
         <v>21</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G93" s="7">
         <v>0</v>
@@ -10573,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P93" s="16">
         <f t="shared" si="14"/>
@@ -10605,10 +11019,10 @@
         <v>27</v>
       </c>
       <c r="B94" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D94" s="7">
         <v>3</v>
@@ -10617,7 +11031,7 @@
         <v>28</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G94" s="7">
         <v>0</v>
@@ -10643,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P94" s="16">
         <f t="shared" si="14"/>
@@ -10675,10 +11089,10 @@
         <v>27</v>
       </c>
       <c r="B95" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D95" s="7">
         <v>5</v>
@@ -10687,7 +11101,7 @@
         <v>40</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G95" s="7">
         <v>0</v>
@@ -10713,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P95" s="16">
         <f t="shared" si="14"/>
@@ -10745,10 +11159,10 @@
         <v>28</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="7">
         <v>1</v>
@@ -10757,7 +11171,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G96" s="7">
         <v>0</v>
@@ -10783,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P96" s="16">
         <f t="shared" si="14"/>
@@ -10815,10 +11229,10 @@
         <v>28</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D97" s="7">
         <v>3</v>
@@ -10827,7 +11241,7 @@
         <v>23</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G97" s="7">
         <v>0</v>
@@ -10853,30 +11267,30 @@
         <v>0</v>
       </c>
       <c r="O97" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P97" s="16">
-        <f t="shared" ref="P97:P136" si="24">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
+        <f t="shared" ref="P97:P160" si="24">IF(LEN($F97)&gt;=4,VALUE(MID($F97,4,4)),0)</f>
         <v>0.18</v>
       </c>
       <c r="Q97" s="16">
-        <f t="shared" ref="Q97:Q136" si="25">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
+        <f t="shared" ref="Q97:Q160" si="25">IF(LEN($F97)&gt;=13,VALUE(MID($F97,13,4)),0)</f>
         <v>0</v>
       </c>
       <c r="R97" s="16">
-        <f t="shared" ref="R97:R136" si="26">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
+        <f t="shared" ref="R97:R160" si="26">IF(LEN($F97)&gt;=22,VALUE(MID($F97,22,4)),0)</f>
         <v>0</v>
       </c>
       <c r="S97" s="16">
-        <f t="shared" ref="S97:S136" si="27">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
+        <f t="shared" ref="S97:S160" si="27">IF(LEN($F97)&gt;=31,VALUE(MID($F97,31,4)),0)</f>
         <v>0</v>
       </c>
       <c r="T97" s="16">
-        <f t="shared" ref="T97:T136" si="28">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
+        <f t="shared" ref="T97:T160" si="28">IF(LEN($F97)&gt;=40,VALUE(MID($F97,40,4)),0)</f>
         <v>0</v>
       </c>
       <c r="U97" s="16">
-        <f t="shared" ref="U97:U136" si="29">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
+        <f t="shared" ref="U97:U160" si="29">IF(LEN($F97)&gt;=49,VALUE(MID($F97,49,4)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10885,10 +11299,10 @@
         <v>28</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D98" s="7">
         <v>5</v>
@@ -10897,7 +11311,7 @@
         <v>42</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
@@ -10923,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P98" s="16">
         <f t="shared" si="24"/>
@@ -10955,10 +11369,10 @@
         <v>29</v>
       </c>
       <c r="B99" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="D99" s="7">
         <v>1</v>
@@ -10967,7 +11381,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
@@ -10993,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P99" s="16">
         <f t="shared" si="24"/>
@@ -11025,10 +11439,10 @@
         <v>29</v>
       </c>
       <c r="B100" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="D100" s="7">
         <v>2</v>
@@ -11037,7 +11451,7 @@
         <v>18</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
@@ -11063,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P100" s="16">
         <f t="shared" si="24"/>
@@ -11095,10 +11509,10 @@
         <v>29</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="D101" s="7">
         <v>3</v>
@@ -11107,7 +11521,7 @@
         <v>25</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
@@ -11133,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P101" s="16">
         <f t="shared" si="24"/>
@@ -11165,10 +11579,10 @@
         <v>29</v>
       </c>
       <c r="B102" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="D102" s="7">
         <v>5</v>
@@ -11177,7 +11591,7 @@
         <v>35</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
@@ -11203,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P102" s="16">
         <f t="shared" si="24"/>
@@ -11235,10 +11649,10 @@
         <v>30</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
@@ -11247,7 +11661,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
@@ -11256,7 +11670,7 @@
         <v>1.5</v>
       </c>
       <c r="I103" s="26">
-        <f t="shared" ref="I103:I128" si="30">$E103*$H103*(1-L103)</f>
+        <f t="shared" ref="I103:I146" si="30">$E103*$H103*(1-L103)</f>
         <v>15</v>
       </c>
       <c r="J103" s="26">
@@ -11273,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P103" s="16">
         <f t="shared" si="24"/>
@@ -11305,10 +11719,10 @@
         <v>30</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D104" s="7">
         <v>3</v>
@@ -11317,7 +11731,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
@@ -11343,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P104" s="16">
         <f t="shared" si="24"/>
@@ -11375,10 +11789,10 @@
         <v>30</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" s="7">
         <v>5</v>
@@ -11387,7 +11801,7 @@
         <v>20</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G105" s="7">
         <v>0</v>
@@ -11413,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P105" s="16">
         <f t="shared" si="24"/>
@@ -11445,10 +11859,10 @@
         <v>30</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D106" s="7">
         <v>1</v>
@@ -11457,7 +11871,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G106" s="7">
         <v>0</v>
@@ -11483,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P106" s="16">
         <f t="shared" si="24"/>
@@ -11515,10 +11929,10 @@
         <v>30</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D107" s="7">
         <v>3</v>
@@ -11527,7 +11941,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G107" s="7">
         <v>0</v>
@@ -11553,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P107" s="16">
         <f t="shared" si="24"/>
@@ -11585,10 +11999,10 @@
         <v>30</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D108" s="7">
         <v>5</v>
@@ -11597,7 +12011,7 @@
         <v>20</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G108" s="7">
         <v>0</v>
@@ -11623,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P108" s="16">
         <f t="shared" si="24"/>
@@ -11655,10 +12069,10 @@
         <v>31</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D109" s="7">
         <v>1</v>
@@ -11667,7 +12081,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G109" s="7">
         <v>0</v>
@@ -11693,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P109" s="16">
         <f t="shared" si="24"/>
@@ -11725,10 +12139,10 @@
         <v>31</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D110" s="7">
         <v>3</v>
@@ -11737,7 +12151,7 @@
         <v>24</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G110" s="7">
         <v>0</v>
@@ -11763,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P110" s="16">
         <f t="shared" si="24"/>
@@ -11795,10 +12209,10 @@
         <v>31</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D111" s="7">
         <v>5</v>
@@ -11807,7 +12221,7 @@
         <v>36</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G111" s="7">
         <v>0</v>
@@ -11833,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P111" s="16">
         <f t="shared" si="24"/>
@@ -11865,10 +12279,10 @@
         <v>32</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D112" s="7">
         <v>1</v>
@@ -11877,7 +12291,7 @@
         <v>15</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G112" s="7">
         <v>0</v>
@@ -11903,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P112" s="16">
         <f t="shared" si="24"/>
@@ -11935,10 +12349,10 @@
         <v>32</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D113" s="7">
         <v>3</v>
@@ -11947,7 +12361,7 @@
         <v>30</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G113" s="7">
         <v>0</v>
@@ -11973,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P113" s="16">
         <f t="shared" si="24"/>
@@ -12005,10 +12419,10 @@
         <v>32</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D114" s="7">
         <v>5</v>
@@ -12017,7 +12431,7 @@
         <v>50</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G114" s="7">
         <v>0</v>
@@ -12043,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P114" s="16">
         <f t="shared" si="24"/>
@@ -12075,10 +12489,10 @@
         <v>33</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D115" s="7">
         <v>1</v>
@@ -12087,7 +12501,7 @@
         <v>5</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G115" s="7">
         <v>0</v>
@@ -12113,7 +12527,7 @@
         <v>0.05</v>
       </c>
       <c r="O115" s="25" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P115" s="16">
         <f t="shared" si="24"/>
@@ -12145,10 +12559,10 @@
         <v>33</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D116" s="7">
         <v>2</v>
@@ -12157,7 +12571,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G116" s="7">
         <v>0</v>
@@ -12183,7 +12597,7 @@
         <v>0.05</v>
       </c>
       <c r="O116" s="25" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P116" s="16">
         <f t="shared" si="24"/>
@@ -12215,10 +12629,10 @@
         <v>33</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D117" s="7">
         <v>3</v>
@@ -12227,7 +12641,7 @@
         <v>15</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G117" s="7">
         <v>0</v>
@@ -12253,7 +12667,7 @@
         <v>0.05</v>
       </c>
       <c r="O117" s="25" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P117" s="16">
         <f t="shared" si="24"/>
@@ -12285,10 +12699,10 @@
         <v>33</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D118" s="7">
         <v>5</v>
@@ -12297,7 +12711,7 @@
         <v>30</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G118" s="7">
         <v>0</v>
@@ -12323,7 +12737,7 @@
         <v>0.05</v>
       </c>
       <c r="O118" s="25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P118" s="16">
         <f t="shared" si="24"/>
@@ -12355,10 +12769,10 @@
         <v>34</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D119" s="7">
         <v>1</v>
@@ -12367,7 +12781,7 @@
         <v>40</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G119" s="7">
         <v>0</v>
@@ -12393,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P119" s="16">
         <f t="shared" si="24"/>
@@ -12425,10 +12839,10 @@
         <v>34</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D120" s="7">
         <v>2</v>
@@ -12437,7 +12851,7 @@
         <v>80</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G120" s="7">
         <v>0</v>
@@ -12450,7 +12864,7 @@
         <v>120</v>
       </c>
       <c r="J120" s="26">
-        <f t="shared" ref="J120:J128" si="31">($E120+(SUM($P120:$U120)*100))*$H120*(1-L120)</f>
+        <f t="shared" ref="J120:J146" si="31">($E120+(SUM($P120:$U120)*100))*$H120*(1-L120)</f>
         <v>150</v>
       </c>
       <c r="K120" s="7">
@@ -12463,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P120" s="16">
         <f t="shared" si="24"/>
@@ -12495,10 +12909,10 @@
         <v>34</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D121" s="7">
         <v>5</v>
@@ -12507,7 +12921,7 @@
         <v>160</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G121" s="7">
         <v>0</v>
@@ -12533,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P121" s="16">
         <f t="shared" si="24"/>
@@ -12565,10 +12979,10 @@
         <v>35</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D122" s="7">
         <v>1</v>
@@ -12577,7 +12991,7 @@
         <v>15</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G122" s="7">
         <v>0</v>
@@ -12603,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P122" s="16">
         <f t="shared" si="24"/>
@@ -12635,10 +13049,10 @@
         <v>35</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D123" s="7">
         <v>3</v>
@@ -12647,7 +13061,7 @@
         <v>25</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G123" s="7">
         <v>0</v>
@@ -12673,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P123" s="16">
         <f t="shared" si="24"/>
@@ -12705,10 +13119,10 @@
         <v>35</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D124" s="7">
         <v>5</v>
@@ -12717,7 +13131,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G124" s="7">
         <v>0</v>
@@ -12743,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P124" s="16">
         <f t="shared" si="24"/>
@@ -12775,10 +13189,10 @@
         <v>36</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D125" s="7">
         <v>5</v>
@@ -12813,7 +13227,7 @@
         <v>0.2</v>
       </c>
       <c r="O125" s="25" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P125" s="16">
         <f t="shared" si="24"/>
@@ -12845,10 +13259,10 @@
         <v>37</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D126" s="7">
         <v>1</v>
@@ -12857,7 +13271,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G126" s="7">
         <v>0</v>
@@ -12883,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="25" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P126" s="16">
         <f t="shared" si="24"/>
@@ -12915,10 +13329,10 @@
         <v>37</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D127" s="7">
         <v>3</v>
@@ -12927,7 +13341,7 @@
         <v>12</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G127" s="7">
         <v>0</v>
@@ -12953,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="25" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P127" s="16">
         <f t="shared" si="24"/>
@@ -12985,10 +13399,10 @@
         <v>37</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D128" s="7">
         <v>5</v>
@@ -12997,7 +13411,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G128" s="7">
         <v>0</v>
@@ -13023,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="25" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P128" s="16">
         <f t="shared" si="24"/>
@@ -13050,10 +13464,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
+        <v>38</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+      <c r="E129" s="7">
+        <v>15</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G129" s="7">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7">
+        <v>1</v>
+      </c>
+      <c r="I129" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J129" s="26">
+        <f t="shared" si="31"/>
+        <v>25</v>
+      </c>
+      <c r="K129" s="7">
+        <v>2</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0</v>
+      </c>
+      <c r="M129" s="7">
+        <v>0</v>
+      </c>
+      <c r="O129" s="25" t="s">
+        <v>316</v>
+      </c>
       <c r="P129" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q129" s="16">
         <f t="shared" si="25"/>
@@ -13076,10 +13534,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A130" s="7">
+        <v>38</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2</v>
+      </c>
+      <c r="E130" s="7">
+        <v>22</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7">
+        <v>1</v>
+      </c>
+      <c r="I130" s="26">
+        <f t="shared" si="30"/>
+        <v>22</v>
+      </c>
+      <c r="J130" s="26">
+        <f>($E130+(SUM($P130:$U130)*100))*$H130*(1-L130)</f>
+        <v>37</v>
+      </c>
+      <c r="K130" s="7">
+        <v>2</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0</v>
+      </c>
+      <c r="M130" s="7">
+        <v>0</v>
+      </c>
+      <c r="O130" s="25" t="s">
+        <v>316</v>
+      </c>
       <c r="P130" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q130" s="16">
         <f t="shared" si="25"/>
@@ -13102,10 +13604,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
+        <v>38</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="7">
+        <v>3</v>
+      </c>
+      <c r="E131" s="7">
+        <v>29</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G131" s="7">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7">
+        <v>1</v>
+      </c>
+      <c r="I131" s="26">
+        <f t="shared" si="30"/>
+        <v>29</v>
+      </c>
+      <c r="J131" s="26">
+        <f t="shared" si="31"/>
+        <v>49</v>
+      </c>
+      <c r="K131" s="7">
+        <v>2</v>
+      </c>
+      <c r="L131" s="7">
+        <v>0</v>
+      </c>
+      <c r="M131" s="7">
+        <v>0</v>
+      </c>
+      <c r="O131" s="25" t="s">
+        <v>316</v>
+      </c>
       <c r="P131" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q131" s="16">
         <f t="shared" si="25"/>
@@ -13128,10 +13674,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A132" s="7">
+        <v>38</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D132" s="7">
+        <v>5</v>
+      </c>
+      <c r="E132" s="7">
+        <v>50</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G132" s="7">
+        <v>0</v>
+      </c>
+      <c r="H132" s="7">
+        <v>1</v>
+      </c>
+      <c r="I132" s="26">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="J132" s="26">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="K132" s="7">
+        <v>2</v>
+      </c>
+      <c r="L132" s="7">
+        <v>0</v>
+      </c>
+      <c r="M132" s="7">
+        <v>0</v>
+      </c>
+      <c r="O132" s="25" t="s">
+        <v>315</v>
+      </c>
       <c r="P132" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q132" s="16">
         <f t="shared" si="25"/>
@@ -13154,10 +13744,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
+        <v>39</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="7">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7">
+        <v>15</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G133" s="7">
+        <v>0</v>
+      </c>
+      <c r="H133" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I133" s="26">
+        <f t="shared" si="30"/>
+        <v>18.75</v>
+      </c>
+      <c r="J133" s="26">
+        <f>($E133+(SUM($P133:$U133)*100))*$H133*(1-L133)</f>
+        <v>37.5</v>
+      </c>
+      <c r="K133" s="7">
+        <v>1</v>
+      </c>
+      <c r="L133" s="7">
+        <v>0</v>
+      </c>
+      <c r="M133" s="7">
+        <v>0</v>
+      </c>
+      <c r="O133" s="25" t="s">
+        <v>323</v>
+      </c>
       <c r="P133" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q133" s="16">
         <f t="shared" si="25"/>
@@ -13180,10 +13814,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A134" s="7">
+        <v>39</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2</v>
+      </c>
+      <c r="E134" s="7">
+        <v>20</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G134" s="7">
+        <v>0</v>
+      </c>
+      <c r="H134" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I134" s="26">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="J134" s="26">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="K134" s="7">
+        <v>1</v>
+      </c>
+      <c r="L134" s="7">
+        <v>0</v>
+      </c>
+      <c r="M134" s="7">
+        <v>0</v>
+      </c>
+      <c r="O134" s="25" t="s">
+        <v>324</v>
+      </c>
       <c r="P134" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q134" s="16">
         <f t="shared" si="25"/>
@@ -13206,10 +13884,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A135" s="7">
+        <v>39</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="7">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7">
+        <v>35</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="G135" s="7">
+        <v>0</v>
+      </c>
+      <c r="H135" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="I135" s="26">
+        <f t="shared" si="30"/>
+        <v>43.75</v>
+      </c>
+      <c r="J135" s="26">
+        <f t="shared" si="31"/>
+        <v>81.25</v>
+      </c>
+      <c r="K135" s="7">
+        <v>1</v>
+      </c>
+      <c r="L135" s="7">
+        <v>0</v>
+      </c>
+      <c r="M135" s="7">
+        <v>0</v>
+      </c>
+      <c r="O135" s="25" t="s">
+        <v>325</v>
+      </c>
       <c r="P135" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q135" s="16">
         <f t="shared" si="25"/>
@@ -13232,10 +13954,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="16:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A136" s="7">
+        <v>40</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="7">
+        <v>12</v>
+      </c>
+      <c r="F136" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="G136" s="7">
+        <v>0</v>
+      </c>
+      <c r="H136" s="7">
+        <v>1</v>
+      </c>
+      <c r="I136" s="26">
+        <f t="shared" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="J136" s="26">
+        <f t="shared" si="31"/>
+        <v>22</v>
+      </c>
+      <c r="K136" s="7">
+        <v>2</v>
+      </c>
+      <c r="L136" s="7">
+        <v>0</v>
+      </c>
+      <c r="M136" s="7">
+        <v>0</v>
+      </c>
+      <c r="O136" s="25" t="s">
+        <v>332</v>
+      </c>
       <c r="P136" s="16">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q136" s="16">
         <f t="shared" si="25"/>
@@ -13255,6 +14021,6337 @@
       </c>
       <c r="U136" s="16">
         <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
+        <v>40</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D137" s="7">
+        <v>2</v>
+      </c>
+      <c r="E137" s="7">
+        <v>18</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G137" s="7">
+        <v>0</v>
+      </c>
+      <c r="H137" s="7">
+        <v>1</v>
+      </c>
+      <c r="I137" s="26">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="J137" s="26">
+        <f>($E137+(SUM($P137:$U137)*100))*$H137*(1-L137)</f>
+        <v>33</v>
+      </c>
+      <c r="K137" s="7">
+        <v>2</v>
+      </c>
+      <c r="L137" s="7">
+        <v>0</v>
+      </c>
+      <c r="M137" s="7">
+        <v>0</v>
+      </c>
+      <c r="O137" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="P137" s="16">
+        <f t="shared" si="24"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q137" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S137" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T137" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A138" s="7">
+        <v>40</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" s="7">
+        <v>3</v>
+      </c>
+      <c r="E138" s="7">
+        <v>24</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G138" s="7">
+        <v>0</v>
+      </c>
+      <c r="H138" s="7">
+        <v>1</v>
+      </c>
+      <c r="I138" s="26">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="J138" s="26">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+      <c r="K138" s="7">
+        <v>2</v>
+      </c>
+      <c r="L138" s="7">
+        <v>0</v>
+      </c>
+      <c r="M138" s="7">
+        <v>0</v>
+      </c>
+      <c r="O138" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="P138" s="16">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q138" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
+        <v>40</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D139" s="7">
+        <v>5</v>
+      </c>
+      <c r="E139" s="7">
+        <v>40</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G139" s="7">
+        <v>0</v>
+      </c>
+      <c r="H139" s="7">
+        <v>1</v>
+      </c>
+      <c r="I139" s="26">
+        <f t="shared" si="30"/>
+        <v>40</v>
+      </c>
+      <c r="J139" s="26">
+        <f t="shared" si="31"/>
+        <v>70</v>
+      </c>
+      <c r="K139" s="7">
+        <v>2</v>
+      </c>
+      <c r="L139" s="7">
+        <v>0</v>
+      </c>
+      <c r="M139" s="7">
+        <v>0</v>
+      </c>
+      <c r="O139" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="P139" s="16">
+        <f t="shared" si="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q139" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S139" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A140" s="7">
+        <v>41</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D140" s="7">
+        <v>1</v>
+      </c>
+      <c r="E140" s="7">
+        <v>15</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G140" s="7">
+        <v>0</v>
+      </c>
+      <c r="H140" s="7">
+        <v>1</v>
+      </c>
+      <c r="I140" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J140" s="26">
+        <f t="shared" si="31"/>
+        <v>30</v>
+      </c>
+      <c r="K140" s="7">
+        <v>7</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0</v>
+      </c>
+      <c r="M140" s="7">
+        <v>0</v>
+      </c>
+      <c r="O140" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="P140" s="16">
+        <f t="shared" si="24"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q140" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S140" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
+        <v>41</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D141" s="7">
+        <v>2</v>
+      </c>
+      <c r="E141" s="7">
+        <v>20</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G141" s="7">
+        <v>0</v>
+      </c>
+      <c r="H141" s="7">
+        <v>1</v>
+      </c>
+      <c r="I141" s="26">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="J141" s="26">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="K141" s="7">
+        <v>7</v>
+      </c>
+      <c r="L141" s="7">
+        <v>0</v>
+      </c>
+      <c r="M141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="P141" s="16">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q141" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R141" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T141" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A142" s="7">
+        <v>41</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D142" s="7">
+        <v>5</v>
+      </c>
+      <c r="E142" s="7">
+        <v>50</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="G142" s="7">
+        <v>0</v>
+      </c>
+      <c r="H142" s="7">
+        <v>1</v>
+      </c>
+      <c r="I142" s="26">
+        <f t="shared" si="30"/>
+        <v>50</v>
+      </c>
+      <c r="J142" s="26">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="K142" s="7">
+        <v>7</v>
+      </c>
+      <c r="L142" s="7">
+        <v>0</v>
+      </c>
+      <c r="M142" s="7">
+        <v>0</v>
+      </c>
+      <c r="O142" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="P142" s="16">
+        <f t="shared" si="24"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q142" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
+        <v>42</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D143" s="7">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7">
+        <v>15</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="G143" s="7">
+        <v>0</v>
+      </c>
+      <c r="H143" s="7">
+        <v>1</v>
+      </c>
+      <c r="I143" s="26">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="J143" s="26">
+        <f t="shared" si="31"/>
+        <v>25</v>
+      </c>
+      <c r="K143" s="7">
+        <v>3</v>
+      </c>
+      <c r="L143" s="7">
+        <v>0</v>
+      </c>
+      <c r="M143" s="7">
+        <v>0</v>
+      </c>
+      <c r="O143" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="P143" s="16">
+        <f t="shared" si="24"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q143" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S143" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T143" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A144" s="7">
+        <v>42</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="7">
+        <v>2</v>
+      </c>
+      <c r="E144" s="7">
+        <v>20</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G144" s="7">
+        <v>0</v>
+      </c>
+      <c r="H144" s="7">
+        <v>1</v>
+      </c>
+      <c r="I144" s="26">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="J144" s="26">
+        <f t="shared" si="31"/>
+        <v>35</v>
+      </c>
+      <c r="K144" s="7">
+        <v>3</v>
+      </c>
+      <c r="L144" s="7">
+        <v>0</v>
+      </c>
+      <c r="M144" s="7">
+        <v>0</v>
+      </c>
+      <c r="O144" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="P144" s="16">
+        <f t="shared" si="24"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q144" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R144" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S144" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T144" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
+        <v>42</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D145" s="7">
+        <v>3</v>
+      </c>
+      <c r="E145" s="7">
+        <v>25</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G145" s="7">
+        <v>0</v>
+      </c>
+      <c r="H145" s="7">
+        <v>1</v>
+      </c>
+      <c r="I145" s="26">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="J145" s="26">
+        <f t="shared" si="31"/>
+        <v>45</v>
+      </c>
+      <c r="K145" s="7">
+        <v>3</v>
+      </c>
+      <c r="L145" s="7">
+        <v>0</v>
+      </c>
+      <c r="M145" s="7">
+        <v>0</v>
+      </c>
+      <c r="O145" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="P145" s="16">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q145" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R145" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S145" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T145" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
+        <v>42</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D146" s="7">
+        <v>5</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="G146" s="7">
+        <v>0</v>
+      </c>
+      <c r="H146" s="7">
+        <v>1</v>
+      </c>
+      <c r="I146" s="26">
+        <f t="shared" si="30"/>
+        <v>45</v>
+      </c>
+      <c r="J146" s="26">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="K146" s="7">
+        <v>3</v>
+      </c>
+      <c r="L146" s="7">
+        <v>0</v>
+      </c>
+      <c r="M146" s="7">
+        <v>0</v>
+      </c>
+      <c r="O146" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="P146" s="16">
+        <f t="shared" si="24"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q146" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S146" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T146" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
+        <v>43</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="P147" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S147" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T147" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A148" s="7">
+        <v>43</v>
+      </c>
+      <c r="P148" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R148" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S148" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T148" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
+        <v>43</v>
+      </c>
+      <c r="P149" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R149" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S149" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T149" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A150" s="7">
+        <v>43</v>
+      </c>
+      <c r="P150" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R150" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S150" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T150" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P151" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S151" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T151" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P152" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q152" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R152" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S152" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T152" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U152" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P153" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q153" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R153" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S153" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T153" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U153" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P154" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q154" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R154" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S154" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T154" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U154" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P155" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q155" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R155" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S155" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T155" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U155" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P156" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q156" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R156" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S156" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T156" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U156" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P157" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q157" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R157" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S157" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T157" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P158" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q158" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R158" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S158" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T158" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P159" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R159" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S159" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T159" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="P160" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R160" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T160" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P161" s="16">
+        <f t="shared" ref="P161:P224" si="32">IF(LEN($F161)&gt;=4,VALUE(MID($F161,4,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="16">
+        <f t="shared" ref="Q161:Q224" si="33">IF(LEN($F161)&gt;=13,VALUE(MID($F161,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R161" s="16">
+        <f t="shared" ref="R161:R224" si="34">IF(LEN($F161)&gt;=22,VALUE(MID($F161,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S161" s="16">
+        <f t="shared" ref="S161:S224" si="35">IF(LEN($F161)&gt;=31,VALUE(MID($F161,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T161" s="16">
+        <f t="shared" ref="T161:T224" si="36">IF(LEN($F161)&gt;=40,VALUE(MID($F161,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U161" s="16">
+        <f t="shared" ref="U161:U224" si="37">IF(LEN($F161)&gt;=49,VALUE(MID($F161,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P162" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R162" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S162" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T162" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U162" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P163" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R163" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S163" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T163" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U163" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P164" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R164" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S164" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T164" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P165" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R165" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S165" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T165" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U165" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P166" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R166" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S166" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T166" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U166" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P167" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R167" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S167" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T167" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U167" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P168" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S168" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T168" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U168" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P169" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R169" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S169" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T169" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U169" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P170" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R170" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S170" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T170" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U170" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P171" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R171" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S171" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T171" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U171" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P172" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R172" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S172" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T172" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U172" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P173" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q173" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R173" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S173" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T173" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U173" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P174" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q174" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R174" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S174" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T174" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U174" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P175" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q175" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R175" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S175" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T175" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U175" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P176" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q176" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R176" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S176" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T176" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U176" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P177" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q177" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R177" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S177" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T177" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U177" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P178" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q178" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R178" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S178" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T178" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U178" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P179" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q179" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R179" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S179" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T179" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U179" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P180" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R180" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S180" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T180" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U180" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P181" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R181" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S181" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T181" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U181" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P182" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R182" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S182" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T182" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U182" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P183" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R183" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S183" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T183" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U183" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P184" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R184" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S184" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T184" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U184" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P185" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R185" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S185" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T185" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U185" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P186" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R186" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S186" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T186" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U186" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P187" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R187" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S187" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T187" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U187" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P188" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R188" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S188" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T188" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U188" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P189" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q189" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R189" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S189" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T189" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U189" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P190" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q190" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R190" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S190" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T190" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U190" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P191" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q191" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R191" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S191" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T191" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U191" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P192" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R192" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S192" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T192" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U192" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P193" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R193" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S193" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T193" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U193" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P194" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R194" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S194" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T194" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U194" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P195" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R195" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S195" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T195" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U195" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P196" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R196" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S196" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T196" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U196" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P197" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R197" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S197" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T197" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U197" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P198" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R198" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S198" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T198" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U198" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P199" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R199" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S199" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T199" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U199" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P200" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R200" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S200" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T200" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U200" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P201" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R201" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S201" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T201" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U201" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P202" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q202" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R202" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S202" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T202" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U202" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P203" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q203" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R203" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S203" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T203" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U203" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P204" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q204" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R204" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S204" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T204" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U204" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P205" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q205" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R205" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S205" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T205" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U205" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P206" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q206" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R206" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S206" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T206" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U206" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P207" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q207" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R207" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S207" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T207" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U207" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P208" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q208" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R208" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S208" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T208" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U208" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P209" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q209" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R209" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S209" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T209" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U209" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P210" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q210" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R210" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S210" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T210" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U210" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P211" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q211" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R211" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S211" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T211" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U211" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P212" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q212" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R212" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S212" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T212" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U212" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P213" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q213" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R213" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S213" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T213" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U213" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P214" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q214" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R214" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S214" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T214" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U214" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P215" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q215" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R215" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S215" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T215" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U215" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P216" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q216" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R216" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S216" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T216" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U216" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P217" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q217" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R217" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S217" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T217" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U217" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P218" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q218" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R218" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S218" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T218" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U218" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P219" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q219" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R219" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S219" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T219" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U219" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P220" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q220" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R220" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S220" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T220" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U220" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P221" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q221" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R221" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S221" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T221" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U221" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P222" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q222" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R222" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S222" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T222" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U222" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P223" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R223" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S223" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T223" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U223" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P224" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q224" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R224" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S224" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T224" s="16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U224" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P225" s="16">
+        <f t="shared" ref="P225:P288" si="38">IF(LEN($F225)&gt;=4,VALUE(MID($F225,4,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q225" s="16">
+        <f t="shared" ref="Q225:Q288" si="39">IF(LEN($F225)&gt;=13,VALUE(MID($F225,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R225" s="16">
+        <f t="shared" ref="R225:R288" si="40">IF(LEN($F225)&gt;=22,VALUE(MID($F225,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S225" s="16">
+        <f t="shared" ref="S225:S288" si="41">IF(LEN($F225)&gt;=31,VALUE(MID($F225,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T225" s="16">
+        <f t="shared" ref="T225:T288" si="42">IF(LEN($F225)&gt;=40,VALUE(MID($F225,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U225" s="16">
+        <f t="shared" ref="U225:U288" si="43">IF(LEN($F225)&gt;=49,VALUE(MID($F225,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P226" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q226" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R226" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S226" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T226" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U226" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P227" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q227" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R227" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S227" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T227" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U227" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P228" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q228" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R228" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S228" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T228" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U228" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P229" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q229" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R229" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S229" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T229" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U229" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P230" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q230" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R230" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S230" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T230" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U230" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P231" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q231" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R231" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S231" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T231" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U231" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P232" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q232" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R232" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S232" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T232" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U232" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P233" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q233" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R233" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S233" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T233" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U233" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P234" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q234" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R234" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S234" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T234" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U234" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P235" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q235" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R235" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S235" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T235" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U235" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P236" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q236" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R236" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S236" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T236" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U236" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P237" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q237" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R237" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S237" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T237" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U237" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P238" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q238" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R238" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S238" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T238" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U238" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P239" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q239" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R239" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S239" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T239" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U239" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P240" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q240" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R240" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S240" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T240" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U240" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P241" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q241" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R241" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S241" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T241" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U241" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P242" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q242" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R242" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S242" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T242" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U242" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P243" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q243" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R243" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S243" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T243" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U243" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P244" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q244" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R244" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S244" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T244" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U244" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P245" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R245" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S245" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T245" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U245" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P246" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q246" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R246" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S246" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T246" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U246" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P247" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q247" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R247" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S247" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T247" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U247" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P248" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q248" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R248" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S248" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T248" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U248" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P249" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R249" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S249" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T249" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U249" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P250" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R250" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S250" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T250" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U250" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P251" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q251" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R251" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S251" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T251" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U251" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P252" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q252" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R252" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S252" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T252" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U252" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P253" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q253" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R253" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S253" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T253" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U253" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P254" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q254" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R254" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S254" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T254" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U254" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P255" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q255" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R255" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S255" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T255" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U255" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P256" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q256" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R256" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S256" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T256" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U256" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P257" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q257" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R257" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S257" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T257" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U257" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P258" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q258" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R258" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S258" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T258" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U258" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P259" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q259" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R259" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S259" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T259" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U259" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P260" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q260" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R260" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S260" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T260" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U260" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P261" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q261" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R261" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S261" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T261" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U261" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P262" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q262" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R262" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S262" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T262" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U262" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P263" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q263" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R263" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S263" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T263" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U263" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P264" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q264" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R264" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S264" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T264" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U264" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P265" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q265" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R265" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S265" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T265" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U265" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P266" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q266" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R266" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S266" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T266" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U266" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P267" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q267" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R267" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S267" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T267" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U267" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P268" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q268" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R268" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S268" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T268" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U268" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P269" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q269" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R269" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S269" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T269" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U269" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P270" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q270" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R270" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S270" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T270" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U270" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P271" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q271" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R271" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S271" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T271" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U271" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P272" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q272" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R272" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S272" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T272" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U272" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P273" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q273" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R273" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S273" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T273" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U273" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P274" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q274" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R274" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S274" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T274" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U274" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P275" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q275" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R275" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S275" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T275" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U275" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P276" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q276" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R276" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S276" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T276" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U276" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P277" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q277" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R277" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S277" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T277" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U277" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P278" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q278" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R278" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S278" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T278" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U278" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P279" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q279" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R279" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S279" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T279" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U279" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P280" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q280" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R280" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S280" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T280" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U280" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P281" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q281" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R281" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S281" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T281" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U281" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P282" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q282" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R282" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S282" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T282" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U282" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P283" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q283" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R283" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S283" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T283" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U283" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P284" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q284" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R284" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S284" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T284" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U284" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P285" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q285" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R285" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S285" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T285" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U285" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P286" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q286" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R286" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S286" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T286" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U286" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P287" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q287" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R287" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S287" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T287" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U287" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P288" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q288" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R288" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S288" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="T288" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U288" s="16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P289" s="16">
+        <f t="shared" ref="P289:P352" si="44">IF(LEN($F289)&gt;=4,VALUE(MID($F289,4,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q289" s="16">
+        <f t="shared" ref="Q289:Q352" si="45">IF(LEN($F289)&gt;=13,VALUE(MID($F289,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R289" s="16">
+        <f t="shared" ref="R289:R352" si="46">IF(LEN($F289)&gt;=22,VALUE(MID($F289,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S289" s="16">
+        <f t="shared" ref="S289:S352" si="47">IF(LEN($F289)&gt;=31,VALUE(MID($F289,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T289" s="16">
+        <f t="shared" ref="T289:T352" si="48">IF(LEN($F289)&gt;=40,VALUE(MID($F289,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U289" s="16">
+        <f t="shared" ref="U289:U352" si="49">IF(LEN($F289)&gt;=49,VALUE(MID($F289,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P290" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q290" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R290" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S290" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T290" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U290" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P291" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q291" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R291" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S291" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T291" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U291" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P292" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q292" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R292" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S292" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T292" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U292" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P293" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q293" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R293" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S293" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T293" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U293" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P294" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q294" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R294" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S294" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T294" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U294" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P295" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q295" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R295" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S295" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T295" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U295" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P296" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q296" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R296" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S296" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T296" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U296" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P297" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q297" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R297" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S297" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T297" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U297" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P298" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q298" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R298" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S298" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T298" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U298" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P299" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q299" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R299" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S299" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T299" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U299" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P300" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q300" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R300" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S300" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T300" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U300" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P301" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q301" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R301" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S301" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T301" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U301" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P302" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q302" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R302" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S302" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T302" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U302" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P303" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q303" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R303" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S303" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T303" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U303" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P304" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q304" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R304" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S304" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T304" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U304" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P305" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q305" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R305" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S305" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T305" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U305" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P306" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q306" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R306" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S306" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T306" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U306" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P307" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q307" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R307" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S307" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T307" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U307" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P308" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q308" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R308" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S308" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T308" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U308" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P309" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q309" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R309" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S309" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T309" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U309" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P310" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q310" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R310" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S310" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T310" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U310" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P311" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q311" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R311" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S311" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T311" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U311" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P312" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q312" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R312" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S312" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T312" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U312" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P313" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q313" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R313" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S313" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T313" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U313" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P314" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q314" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R314" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S314" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T314" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U314" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P315" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q315" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R315" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S315" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T315" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U315" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P316" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q316" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R316" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S316" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T316" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U316" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P317" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q317" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R317" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S317" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T317" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U317" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P318" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q318" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R318" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S318" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T318" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U318" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P319" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q319" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R319" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S319" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T319" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U319" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P320" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q320" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R320" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S320" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T320" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U320" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P321" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q321" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R321" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S321" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T321" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U321" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P322" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q322" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R322" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S322" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T322" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U322" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P323" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q323" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R323" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S323" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T323" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U323" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P324" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q324" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R324" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S324" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T324" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U324" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P325" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q325" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R325" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S325" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T325" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U325" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P326" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q326" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R326" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S326" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T326" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U326" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P327" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q327" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R327" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S327" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T327" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U327" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P328" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q328" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R328" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S328" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T328" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U328" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P329" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q329" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R329" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S329" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T329" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U329" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P330" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q330" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R330" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S330" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T330" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U330" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P331" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q331" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R331" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S331" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T331" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U331" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P332" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q332" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R332" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S332" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T332" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U332" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P333" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q333" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R333" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S333" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T333" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U333" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P334" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q334" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R334" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S334" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T334" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U334" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P335" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q335" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R335" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S335" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T335" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U335" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P336" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q336" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R336" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S336" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T336" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U336" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P337" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q337" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R337" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S337" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T337" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U337" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P338" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q338" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R338" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S338" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T338" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U338" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P339" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q339" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R339" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S339" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T339" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U339" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P340" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q340" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R340" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S340" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T340" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U340" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P341" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q341" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R341" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S341" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T341" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U341" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P342" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q342" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R342" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S342" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T342" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U342" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P343" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q343" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R343" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S343" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T343" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U343" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P344" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q344" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R344" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S344" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T344" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U344" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P345" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q345" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R345" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S345" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T345" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U345" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P346" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q346" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R346" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S346" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T346" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U346" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P347" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q347" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R347" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S347" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T347" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U347" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P348" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q348" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R348" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S348" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T348" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U348" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P349" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q349" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R349" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S349" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T349" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U349" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P350" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q350" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R350" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S350" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T350" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U350" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P351" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q351" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R351" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S351" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T351" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U351" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P352" s="16">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q352" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R352" s="16">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S352" s="16">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T352" s="16">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="U352" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P353" s="16">
+        <f t="shared" ref="P353:P362" si="50">IF(LEN($F353)&gt;=4,VALUE(MID($F353,4,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q353" s="16">
+        <f t="shared" ref="Q353:Q362" si="51">IF(LEN($F353)&gt;=13,VALUE(MID($F353,13,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="R353" s="16">
+        <f t="shared" ref="R353:R362" si="52">IF(LEN($F353)&gt;=22,VALUE(MID($F353,22,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S353" s="16">
+        <f t="shared" ref="S353:S362" si="53">IF(LEN($F353)&gt;=31,VALUE(MID($F353,31,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T353" s="16">
+        <f t="shared" ref="T353:T362" si="54">IF(LEN($F353)&gt;=40,VALUE(MID($F353,40,4)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U353" s="16">
+        <f t="shared" ref="U353:U362" si="55">IF(LEN($F353)&gt;=49,VALUE(MID($F353,49,4)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P354" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q354" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R354" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S354" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T354" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U354" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P355" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q355" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R355" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S355" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T355" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U355" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P356" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q356" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R356" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S356" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T356" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U356" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P357" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q357" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R357" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S357" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T357" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U357" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P358" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q358" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R358" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S358" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T358" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U358" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P359" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q359" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R359" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S359" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T359" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U359" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P360" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q360" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R360" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S360" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T360" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U360" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P361" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q361" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R361" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S361" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T361" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U361" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="16:21" x14ac:dyDescent="0.15">
+      <c r="P362" s="16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q362" s="16">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R362" s="16">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="S362" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T362" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U362" s="16">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -14104,7 +21201,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D9" s="31" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">

--- a/Assets/DesignDocument/装备规划.xlsx
+++ b/Assets/DesignDocument/装备规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\Assets\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D1051-171F-42CC-B8FE-D564F4459407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1E5F5-AE5E-4BBC-BA62-265A01AF7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="548">
   <si>
     <t>ID</t>
   </si>
@@ -6103,6 +6103,718 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 相关的伤害时，该角色都会发动一次攻击（无视距离）</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[护手、追猎者的狂怒]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>追猎者的狂怒</t>
+  </si>
+  <si>
+    <r>
+      <t>暴击几率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物理强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击几率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，物理强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+20</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果该回合角色进行了移动，那么下一次攻击会获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 伤害加成</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[项链、重归纯粹]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>重归纯粹</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>全属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[头饰、以金之名]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>以金之名</t>
+  </si>
+  <si>
+    <r>
+      <t>最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+15</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色失去所有特性，所有伤害类型变为虔诚，无法获得增益效果和负面状态</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[戒指、气奥]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>气奥</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每次攻击将消耗 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 枚金币来增加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点虔诚伤害</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>迅捷值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+20</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装备了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [拳套]类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 武器后，承受魔法伤害时会获得一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 的减值</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[头饰、毁灭者之冠]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭者之冠</t>
+  </si>
+  <si>
+    <r>
+      <t>物理、魔法、虔诚、防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">让角色的武器栏扩充到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 个，角色造成的伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X%</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[手镯、堆叠灾变]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆叠灾变</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>角色与其装备肿所有和叠加相关的特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叠加效率加倍</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[头饰、罪恶升华]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪恶升华</t>
+  </si>
+  <si>
+    <r>
+      <t>物理、魔法、虔诚、防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+5</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">玩家每拥有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点罪恶值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">便额外提供 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 点物理、魔法、虔诚、防御强度，同时失去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点 血量</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[戒指、临终关怀]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>临终关怀</t>
+  </si>
+  <si>
+    <r>
+      <t>魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+15</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+30</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个回合玩家队伍中出现的前 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 次暴击获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 伤害加成</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个回合玩家队伍中出现的前 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 次暴击获得 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 伤害加成</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[项链、熵增]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>熵增</t>
+  </si>
+  <si>
+    <r>
+      <t>物理、魔法强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">角色特性中的持续效果延长 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回合</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>[戒指、流光瞬息]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>流光瞬息</t>
+  </si>
+  <si>
+    <r>
+      <t>最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，防御强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-10</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">角色特性的冷却时间缩短 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0504D"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回合</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -6750,9 +7462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U362"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16995,9 +17707,6 @@
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A149" s="7">
-        <v>43</v>
-      </c>
       <c r="P149" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -17024,9 +17733,6 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A150" s="7">
-        <v>43</v>
-      </c>
       <c r="P150" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -22576,7 +23282,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -24756,11 +25462,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -25688,6 +26394,246 @@
       </c>
       <c r="F47" s="24" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>21</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>21</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>22</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D50" s="7">
+        <v>5</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>23</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>24</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52" s="7">
+        <v>3</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>25</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>26</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>27</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="7">
+        <v>28</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>28</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D57" s="7">
+        <v>5</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>29</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D58" s="7">
+        <v>5</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>30</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D59" s="7">
+        <v>5</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
